--- a/InputFiles/CCDI/TC04_CCDI_PHS-Accession-phs002529_Sex-Male_Race-White.xlsx
+++ b/InputFiles/CCDI/TC04_CCDI_PHS-Accession-phs002529_Sex-Male_Race-White.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sohilz2/Automation/ccdi-03-01-2024/Commons_Automation/InputFiles/CCDI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sohilz2/Automation/ccdi-03-24-2024/Commons_Automation/InputFiles/CCDI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEB9AEA-688F-3846-BA80-7B71814B4BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C401A6B2-C4B2-5D45-94DD-A8B281437B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30240" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -70,352 +70,1956 @@
     <t>TC04_CCDI_PHS-Accession-phs002529_Sex-Male_Race-White_WebData.xlsx</t>
   </si>
   <si>
-    <t>MATCH (st:study)&lt;-[:of_participant]-(p:participant)
-WHERE p.sex_at_birth IN ['Male'] and p.race in ['White'] and st.phs_accession IN ['phs002529']
-        OPTIONAL MATCH (p)&lt;-[*..4]-(file)
-        WHERE (file:clinical_measure_file OR file: sequencing_file OR file:pathology_file OR file:radiology_file OR file:methylation_array_file OR file:single_cell_sequencing_file OR file:cytogenomic_file)
-        OPTIONAL MATCH (st)&lt;--(file1:clinical_measure_file)
-        OPTIONAL MATCH (p)&lt;-[:of_diagnosis]-(dg:diagnosis)
-        OPTIONAL MATCH (p)&lt;-[:of_sample]-(sm:sample)
-        WITH file, file1, p, st, sm, dg
-        return
-        count(distinct st.id) as Studies,
-        count(distinct p.id)as Participants,
-          count(distinct sm.id) as Samples,
-        count(distinct file.id) + count(distinct file1.id) as Files</t>
+    <t>Match (st:study)
+where st.phs_accession in ['phs002529']   
+with st
+Call {
+with st
+MATCH (file:clinical_measure_file)
+MATCH (p:participant)-[:of_clinical_measure_file]-(file)
+MATCH (st)&lt;-[:of_participant]-(p)
+OPTIONAL MATCH (p)&lt;-[:of_sample]-(sm:sample)
+OPTIONAL MATCH (st)&lt;-[:of_publication]-(pub:publication)
+OPTIONAL MATCH (p)&lt;-[:of_diagnosis]-(dg:diagnosis)
+OPTIONAL MATCH (p)&lt;-[:of_follow_up]-(fu:follow_up)
+OPTIONAL MATCH (st)&lt;-[:of_study_personnel]-(stp:study_personnel)
+OPTIONAL MATCH (st)&lt;-[:of_study_funding]-(stf:study_funding)
+UNWIND apoc.text.split(p.ethnicity, ';') AS ethnicities
+UNWIND apoc.text.split(p.race, ';') AS races
+RETURN DISTINCT
+  file.id as id,
+  p.id as pid,
+  file.clinical_measure_file_id AS file_id,
+  file.dcf_indexd_guid AS guid,
+  file.file_name AS file_name,
+  'Clinical data' AS file_category,
+  file.file_type AS file_type,
+  file.file_description AS file_description,
+  file.file_size AS file_size,
+  file.md5sum AS md5sum,
+  st.study_id AS study_id,
+  st.phs_accession as phs_accession,
+  st.study_acronym as study_acronym,
+  st.study_short_title as study_short_title,
+  p.participant_id AS participant_id,
+  null AS sample_id,
+  null as combined_filters,
+  COLLECT(DISTINCT {
+      race: races,
+      sex_at_birth: p.sex_at_birth,
+      ethnicity: ethnicities
+  }) AS participant_filters,
+  COLLECT(DISTINCT {
+      age_at_diagnosis: dg.age_at_diagnosis,
+      diagnosis_anatomic_site: dg.anatomic_site,
+      disease_phase: dg.disease_phase,
+      diagnosis_classification_system: dg.diagnosis_classification_system,
+      diagnosis_verification_status: dg.diagnosis_verification_status,
+      diagnosis_basis: dg.diagnosis_basis,
+      diagnosis_comment: dg.diagnosis_comment,
+      diagnosis_classification: dg.diagnosis_classification
+  }) AS diagnosis_filters,
+  COLLECT(DISTINCT fu.vital_status) as vital_status,
+  COLLECT(DISTINCT {
+      sample_anatomic_site: sm.anatomic_site,
+      participant_age_at_collection: sm.participant_age_at_collection,
+      sample_tumor_status: sm.sample_tumor_status,
+      tumor_classification: sm.tumor_classification
+  }) AS sample_filters,
+  COLLECT(DISTINCT stf.grant_id) as grant_id,
+  COLLECT(DISTINCT stp.institution) as institution,      
+  null AS library_selection,
+  null AS library_source,
+  null AS library_strategy
+UNION ALL
+with st
+MATCH (file:methylation_array_file)
+MATCH (p:participant)&lt;-[:of_sample]-(sm1:sample)&lt;-[*0..2]-(sm:sample)&lt;-[:of_methylation_array_file]-(file)
+MATCH (st)&lt;-[:of_participant]-(p)
+OPTIONAL MATCH (st)&lt;-[:of_publication]-(pub:publication)
+OPTIONAL MATCH (p)&lt;-[:of_diagnosis]-(dg:diagnosis)
+OPTIONAL MATCH (p)&lt;-[:of_follow_up]-(fu:follow_up)
+OPTIONAL MATCH (st)&lt;-[:of_study_personnel]-(stp:study_personnel)
+OPTIONAL MATCH (st)&lt;-[:of_study_funding]-(stf:study_funding)
+UNWIND apoc.text.split(p.ethnicity, ';') AS ethnicities
+UNWIND apoc.text.split(p.race, ';') AS races
+with file, p, sm1, sm, st, ethnicities, races, fu, dg, stf, stp
+RETURN DISTINCT
+  file.id as id,
+  p.id as pid,
+  file.methylation_array_file_id AS file_id,
+  file.dcf_indexd_guid AS guid,
+  file.file_name AS file_name,
+  'Methylation array' AS file_category,
+  file.file_type AS file_type,
+  file.file_description AS file_description,
+  file.file_size AS file_size,
+  file.md5sum AS md5sum,
+  st.study_id AS study_id,
+  st.phs_accession as phs_accession,
+  st.study_acronym as study_acronym,
+  st.study_short_title as study_short_title,
+  p.participant_id AS participant_id,
+  CASE sm1.sample_id WHEN sm.sample_id THEN sm.sample_id
+            ELSE sm1.sample_id + ',' + sm.sample_id END AS sample_id,
+  null as combined_filters,
+  COLLECT(DISTINCT {
+      race: races,
+      sex_at_birth: p.sex_at_birth,
+      ethnicity: ethnicities
+  }) AS participant_filters,
+  COLLECT(DISTINCT {
+      age_at_diagnosis: dg.age_at_diagnosis,
+      diagnosis_anatomic_site: dg.anatomic_site,
+      disease_phase: dg.disease_phase,
+      diagnosis_classification_system: dg.diagnosis_classification_system,
+      diagnosis_verification_status: dg.diagnosis_verification_status,
+      diagnosis_basis: dg.diagnosis_basis,
+      diagnosis_comment: dg.diagnosis_comment,
+      diagnosis_classification: dg.diagnosis_classification
+  }) AS diagnosis_filters,
+  COLLECT(DISTINCT fu.vital_status) as vital_status,
+  CASE sm1.sample_id WHEN sm.sample_id THEN COLLECT(DISTINCT {
+                              sample_anatomic_site: sm.anatomic_site,
+                              participant_age_at_collection: sm.participant_age_at_collection,
+                              sample_tumor_status: sm.sample_tumor_status,
+                              tumor_classification: sm.tumor_classification
+                          })
+            ELSE apoc.coll.union(COLLECT(DISTINCT {
+                              sample_anatomic_site: sm1.anatomic_site,
+                              participant_age_at_collection: sm1.participant_age_at_collection,
+                              sample_tumor_status: sm1.sample_tumor_status,
+                              tumor_classification: sm1.tumor_classification
+                          }), COLLECT(DISTINCT {
+                              sample_anatomic_site: sm.anatomic_site,
+                              participant_age_at_collection: sm.participant_age_at_collection,
+                              sample_tumor_status: sm.sample_tumor_status,
+                              tumor_classification: sm.tumor_classification
+                          })) END AS sample_filters,
+  COLLECT(DISTINCT stf.grant_id) as grant_id,
+  COLLECT(DISTINCT stp.institution) as institution,
+  null AS library_selection,
+  null AS library_source,
+  null AS library_strategy
+UNION ALL
+with st
+MATCH (file:pathology_file)
+MATCH (p:participant)&lt;-[:of_sample]-(sm1:sample)&lt;-[*0..2]-(sm:sample)&lt;-[:of_pathology_file]-(file)
+MATCH (st)&lt;-[:of_participant]-(p)
+OPTIONAL MATCH (st)&lt;-[:of_publication]-(pub:publication)
+OPTIONAL MATCH (p)&lt;-[:of_diagnosis]-(dg:diagnosis)
+OPTIONAL MATCH (p)&lt;-[:of_follow_up]-(fu:follow_up)
+OPTIONAL MATCH (st)&lt;-[:of_study_personnel]-(stp:study_personnel)
+OPTIONAL MATCH (st)&lt;-[:of_study_funding]-(stf:study_funding)
+UNWIND apoc.text.split(p.ethnicity, ';') AS ethnicities
+UNWIND apoc.text.split(p.race, ';') AS races
+with file, p, sm1, sm, st, ethnicities, races, fu, dg, stf, stp
+RETURN DISTINCT
+  file.id as id,
+  p.id as pid,
+  file.pathology_file_id AS file_id,
+  file.dcf_indexd_guid AS guid,
+  file.file_name AS file_name,
+  'Pathology imaging' AS file_category,
+  file.file_type AS file_type,
+  file.file_description AS file_description,
+  file.file_size AS file_size,
+  file.md5sum AS md5sum,
+  st.study_id AS study_id,
+  st.phs_accession as phs_accession,
+  st.study_acronym as study_acronym,
+  st.study_short_title as study_short_title,
+  p.participant_id AS participant_id,
+  CASE sm1.sample_id WHEN sm.sample_id THEN sm.sample_id
+            ELSE sm1.sample_id + ',' + sm.sample_id END AS sample_id,
+  null as combined_filters,
+  COLLECT(DISTINCT {
+      race: races,
+      sex_at_birth: p.sex_at_birth,
+      ethnicity: ethnicities
+  }) AS participant_filters,
+  COLLECT(DISTINCT {
+      age_at_diagnosis: dg.age_at_diagnosis,
+      diagnosis_anatomic_site: dg.anatomic_site,
+      disease_phase: dg.disease_phase,
+      diagnosis_classification_system: dg.diagnosis_classification_system,
+      diagnosis_verification_status: dg.diagnosis_verification_status,
+      diagnosis_basis: dg.diagnosis_basis,
+      diagnosis_comment: dg.diagnosis_comment,
+      diagnosis_classification: dg.diagnosis_classification
+  }) AS diagnosis_filters,
+  COLLECT(DISTINCT fu.vital_status) as vital_status,
+  CASE sm1.sample_id WHEN sm.sample_id THEN COLLECT(DISTINCT {
+                              sample_anatomic_site: sm.anatomic_site,
+                              participant_age_at_collection: sm.participant_age_at_collection,
+                              sample_tumor_status: sm.sample_tumor_status,
+                              tumor_classification: sm.tumor_classification
+                          })
+            ELSE apoc.coll.union(COLLECT(DISTINCT {
+                              sample_anatomic_site: sm1.anatomic_site,
+                              participant_age_at_collection: sm1.participant_age_at_collection,
+                              sample_tumor_status: sm1.sample_tumor_status,
+                              tumor_classification: sm1.tumor_classification
+                          }), COLLECT(DISTINCT {
+                              sample_anatomic_site: sm.anatomic_site,
+                              participant_age_at_collection: sm.participant_age_at_collection,
+                              sample_tumor_status: sm.sample_tumor_status,
+                              tumor_classification: sm.tumor_classification
+                          })) END AS sample_filters,
+  COLLECT(DISTINCT stf.grant_id) as grant_id,
+  COLLECT(DISTINCT stp.institution) as institution,
+  file.library_selection AS library_selection,
+  file.library_source AS library_source,
+  file.library_strategy AS library_strategy
+UNION ALL
+with st
+MATCH (file:radiology_file)
+MATCH (p:participant)&lt;-[:of_radiology_file]-(file)
+MATCH (st)&lt;-[:of_participant]-(p)
+OPTIONAL MATCH (p)&lt;-[:of_sample]-(sm:sample)
+OPTIONAL MATCH (st)&lt;-[:of_publication]-(pub:publication)
+OPTIONAL MATCH (p)&lt;-[:of_diagnosis]-(dg:diagnosis)
+OPTIONAL MATCH (p)&lt;-[:of_follow_up]-(fu:follow_up)
+OPTIONAL MATCH (st)&lt;-[:of_study_personnel]-(stp:study_personnel)
+OPTIONAL MATCH (st)&lt;-[:of_study_funding]-(stf:study_funding)
+UNWIND apoc.text.split(p.ethnicity, ';') AS ethnicities
+UNWIND apoc.text.split(p.race, ';') AS races
+RETURN DISTINCT
+  file.id as id,
+  p.id as pid,
+  file.radiology_file_id AS file_id,
+  file.dcf_indexd_guid AS guid,
+  file.file_name AS file_name,
+  'Radiology imaging' AS file_category,
+  file.file_type AS file_type,
+  file.file_description AS file_description,
+  file.file_size AS file_size,
+  file.md5sum AS md5sum,
+  st.study_id AS study_id,
+  st.phs_accession as phs_accession,
+  st.study_acronym as study_acronym,
+  st.study_short_title as study_short_title,
+  p.participant_id AS participant_id,
+  null AS sample_id,
+  null as combined_filters,
+  COLLECT(DISTINCT {
+      race: races,
+      sex_at_birth: p.sex_at_birth,
+      ethnicity: ethnicities
+  }) AS participant_filters,
+  COLLECT(DISTINCT {
+      age_at_diagnosis: dg.age_at_diagnosis,
+      diagnosis_anatomic_site: dg.anatomic_site,
+      disease_phase: dg.disease_phase,
+      diagnosis_classification_system: dg.diagnosis_classification_system,
+      diagnosis_verification_status: dg.diagnosis_verification_status,
+      diagnosis_basis: dg.diagnosis_basis,
+      diagnosis_comment: dg.diagnosis_comment,
+      diagnosis_classification: dg.diagnosis_classification
+  }) AS diagnosis_filters,
+  COLLECT(DISTINCT fu.vital_status) as vital_status,
+  COLLECT(DISTINCT {
+      sample_anatomic_site: sm.anatomic_site,
+      participant_age_at_collection: sm.participant_age_at_collection,
+      sample_tumor_status: sm.sample_tumor_status,
+      tumor_classification: sm.tumor_classification
+  }) AS sample_filters,
+  COLLECT(DISTINCT stf.grant_id) as grant_id,
+  COLLECT(DISTINCT stp.institution) as institution,
+  null AS library_selection,
+  null AS library_source,
+  null AS library_strategy
+UNION ALL
+with st
+MATCH (file:single_cell_sequencing_file)
+MATCH (p:participant)&lt;-[:of_sample]-(sm1:sample)&lt;-[*0..2]-(sm:sample)&lt;-[:of_single_cell_sequencing_file]-(file)
+MATCH (st)&lt;-[:of_participant]-(p)
+OPTIONAL MATCH (st)&lt;-[:of_publication]-(pub:publication)
+OPTIONAL MATCH (p)&lt;-[:of_diagnosis]-(dg:diagnosis)
+OPTIONAL MATCH (p)&lt;-[:of_follow_up]-(fu:follow_up)
+OPTIONAL MATCH (st)&lt;-[:of_study_personnel]-(stp:study_personnel)
+OPTIONAL MATCH (st)&lt;-[:of_study_funding]-(stf:study_funding)
+UNWIND apoc.text.split(p.ethnicity, ';') AS ethnicities
+UNWIND apoc.text.split(p.race, ';') AS races
+with file, p, sm1, sm, st, ethnicities, races, fu, dg, stf, stp
+RETURN DISTINCT
+  file.id as id,
+  p.id as pid,
+  file.single_cell_sequencing_file_id AS file_id,
+  file.dcf_indexd_guid AS guid,
+  file.file_name AS file_name,
+  'Single Cell Sequencing' AS file_category,
+  file.file_type AS file_type,
+  file.file_description AS file_description,
+  file.file_size AS file_size,
+  file.md5sum AS md5sum,
+  st.study_id AS study_id,
+  st.phs_accession as phs_accession,
+  st.study_acronym as study_acronym,
+  st.study_short_title as study_short_title,
+  p.participant_id AS participant_id,
+  CASE sm1.sample_id WHEN sm.sample_id THEN sm.sample_id
+            ELSE sm1.sample_id + ',' + sm.sample_id END AS sample_id,
+  null as combined_filters,
+  COLLECT(DISTINCT {
+      race: races,
+      sex_at_birth: p.sex_at_birth,
+      ethnicity: ethnicities
+  }) AS participant_filters,
+  COLLECT(DISTINCT {
+      age_at_diagnosis: dg.age_at_diagnosis,
+      diagnosis_anatomic_site: dg.anatomic_site,
+      disease_phase: dg.disease_phase,
+      diagnosis_classification_system: dg.diagnosis_classification_system,
+      diagnosis_verification_status: dg.diagnosis_verification_status,
+      diagnosis_basis: dg.diagnosis_basis,
+      diagnosis_comment: dg.diagnosis_comment,
+      diagnosis_classification: dg.diagnosis_classification
+  }) AS diagnosis_filters,
+  COLLECT(DISTINCT fu.vital_status) as vital_status,
+  CASE sm1.sample_id WHEN sm.sample_id THEN COLLECT(DISTINCT {
+                              sample_anatomic_site: sm.anatomic_site,
+                              participant_age_at_collection: sm.participant_age_at_collection,
+                              sample_tumor_status: sm.sample_tumor_status,
+                              tumor_classification: sm.tumor_classification
+                          })
+            ELSE apoc.coll.union(COLLECT(DISTINCT {
+                              sample_anatomic_site: sm1.anatomic_site,
+                              participant_age_at_collection: sm1.participant_age_at_collection,
+                              sample_tumor_status: sm1.sample_tumor_status,
+                              tumor_classification: sm1.tumor_classification
+                          }), COLLECT(DISTINCT {
+                              sample_anatomic_site: sm.anatomic_site,
+                              participant_age_at_collection: sm.participant_age_at_collection,
+                              sample_tumor_status: sm.sample_tumor_status,
+                              tumor_classification: sm.tumor_classification
+                          })) END AS sample_filters,
+  COLLECT(DISTINCT stf.grant_id) as grant_id,
+  COLLECT(DISTINCT stp.institution) as institution,
+  file.library_selection AS library_selection,
+  file.library_source AS library_source,
+  file.library_strategy AS library_strategy
+UNION ALL
+with st
+MATCH (file:sequencing_file)
+MATCH (p:participant)&lt;-[:of_sample]-(sm1:sample)&lt;-[*0..2]-(sm:sample)&lt;-[:of_sequencing_file]-(file)
+MATCH (st)&lt;-[:of_participant]-(p)
+OPTIONAL MATCH (st)&lt;-[:of_publication]-(pub:publication)
+OPTIONAL MATCH (p)&lt;-[:of_diagnosis]-(dg:diagnosis)
+OPTIONAL MATCH (p)&lt;-[:of_follow_up]-(fu:follow_up)
+OPTIONAL MATCH (st)&lt;-[:of_study_personnel]-(stp:study_personnel)
+OPTIONAL MATCH (st)&lt;-[:of_study_funding]-(stf:study_funding)
+UNWIND apoc.text.split(p.ethnicity, ';') AS ethnicities
+UNWIND apoc.text.split(p.race, ';') AS races
+with file, p, sm1, sm, st, ethnicities, races, fu, dg, stf, stp
+RETURN DISTINCT
+  file.id as id,
+  p.id as pid,
+  file.sequencing_file_id AS file_id,
+  file.dcf_indexd_guid AS guid,
+  file.file_name AS file_name,
+  'Sequencing' AS file_category,
+  file.file_type AS file_type,
+  file.file_description AS file_description,
+  file.file_size AS file_size,
+  file.md5sum AS md5sum,
+  st.study_id AS study_id,
+  st.phs_accession as phs_accession,
+  st.study_acronym as study_acronym,
+  st.study_short_title as study_short_title,
+  p.participant_id AS participant_id,
+  CASE sm1.sample_id WHEN sm.sample_id THEN sm.sample_id
+            ELSE sm1.sample_id + ',' + sm.sample_id END AS sample_id,
+  null as combined_filters,
+  COLLECT(DISTINCT {
+      race: races,
+      sex_at_birth: p.sex_at_birth,
+      ethnicity: ethnicities
+  }) AS participant_filters,
+  COLLECT(DISTINCT {
+      age_at_diagnosis: dg.age_at_diagnosis,
+      diagnosis_anatomic_site: dg.anatomic_site,
+      disease_phase: dg.disease_phase,
+      diagnosis_classification_system: dg.diagnosis_classification_system,
+      diagnosis_verification_status: dg.diagnosis_verification_status,
+      diagnosis_basis: dg.diagnosis_basis,
+      diagnosis_comment: dg.diagnosis_comment,
+      diagnosis_classification: dg.diagnosis_classification
+  }) AS diagnosis_filters,
+  COLLECT(DISTINCT fu.vital_status) as vital_status,
+  CASE sm1.sample_id WHEN sm.sample_id THEN COLLECT(DISTINCT {
+                              sample_anatomic_site: sm.anatomic_site,
+                              participant_age_at_collection: sm.participant_age_at_collection,
+                              sample_tumor_status: sm.sample_tumor_status,
+                              tumor_classification: sm.tumor_classification
+                          })
+            ELSE apoc.coll.union(COLLECT(DISTINCT {
+                              sample_anatomic_site: sm1.anatomic_site,
+                              participant_age_at_collection: sm1.participant_age_at_collection,
+                              sample_tumor_status: sm1.sample_tumor_status,
+                              tumor_classification: sm1.tumor_classification
+                          }), COLLECT(DISTINCT {
+                              sample_anatomic_site: sm.anatomic_site,
+                              participant_age_at_collection: sm.participant_age_at_collection,
+                              sample_tumor_status: sm.sample_tumor_status,
+                              tumor_classification: sm.tumor_classification
+                          })) END AS sample_filters,
+  COLLECT(DISTINCT stf.grant_id) as grant_id,
+  COLLECT(DISTINCT stp.institution) as institution,
+  file.library_selection AS library_selection,
+  file.library_source AS library_source,
+  file.library_strategy AS library_strategy
+UNION ALL
+with st
+MATCH (file:cytogenomic_file)
+MATCH (p:participant)&lt;-[:of_sample]-(sm1:sample)&lt;-[*0..2]-(sm:sample)&lt;-[:of_cytogenomic_file]-(file)
+MATCH (st)&lt;-[:of_participant]-(p)
+OPTIONAL MATCH (st)&lt;-[:of_publication]-(pub:publication)
+OPTIONAL MATCH (p)&lt;-[:of_diagnosis]-(dg:diagnosis)
+OPTIONAL MATCH (p)&lt;-[:of_follow_up]-(fu:follow_up)
+OPTIONAL MATCH (st)&lt;-[:of_study_personnel]-(stp:study_personnel)
+OPTIONAL MATCH (st)&lt;-[:of_study_funding]-(stf:study_funding)
+UNWIND apoc.text.split(p.ethnicity, ';') AS ethnicities
+UNWIND apoc.text.split(p.race, ';') AS races
+with file, p, sm1, sm, st, ethnicities, races, fu, dg, stf, stp
+RETURN DISTINCT
+  file.id as id,
+  p.id as pid,
+  file.cytogenomic_file_id AS file_id,
+  file.dcf_indexd_guid AS guid,
+  file.file_name AS file_name,
+  'Cytogenomic' AS file_category,
+  file.file_type AS file_type,
+  file.file_description AS file_description,
+  file.file_size AS file_size,
+  file.md5sum AS md5sum,
+  st.study_id AS study_id,
+  st.phs_accession as phs_accession,
+  st.study_acronym as study_acronym,
+  st.study_short_title as study_short_title,
+  p.participant_id AS participant_id,
+  CASE sm1.sample_id WHEN sm.sample_id THEN sm.sample_id
+            ELSE sm1.sample_id + ',' + sm.sample_id END AS sample_id,
+  null as combined_filters,
+  COLLECT(DISTINCT {
+      race: races,
+      sex_at_birth: p.sex_at_birth,
+      ethnicity: ethnicities
+  }) AS participant_filters,
+  COLLECT(DISTINCT {
+      age_at_diagnosis: dg.age_at_diagnosis,
+      diagnosis_anatomic_site: dg.anatomic_site,
+      disease_phase: dg.disease_phase,
+      diagnosis_classification_system: dg.diagnosis_classification_system,
+      diagnosis_verification_status: dg.diagnosis_verification_status,
+      diagnosis_basis: dg.diagnosis_basis,
+      diagnosis_comment: dg.diagnosis_comment,
+      diagnosis_classification: dg.diagnosis_classification
+  }) AS diagnosis_filters,
+  COLLECT(DISTINCT fu.vital_status) as vital_status,
+  CASE sm1.sample_id WHEN sm.sample_id THEN COLLECT(DISTINCT {
+                              sample_anatomic_site: sm.anatomic_site,
+                              participant_age_at_collection: sm.participant_age_at_collection,
+                              sample_tumor_status: sm.sample_tumor_status,
+                              tumor_classification: sm.tumor_classification
+                          })
+            ELSE apoc.coll.union(COLLECT(DISTINCT {
+                              sample_anatomic_site: sm1.anatomic_site,
+                              participant_age_at_collection: sm1.participant_age_at_collection,
+                              sample_tumor_status: sm1.sample_tumor_status,
+                              tumor_classification: sm1.tumor_classification
+                          }), COLLECT(DISTINCT {
+                              sample_anatomic_site: sm.anatomic_site,
+                              participant_age_at_collection: sm.participant_age_at_collection,
+                              sample_tumor_status: sm.sample_tumor_status,
+                              tumor_classification: sm.tumor_classification
+                          })) END AS sample_filters,
+  COLLECT(DISTINCT stf.grant_id) as grant_id,
+  COLLECT(DISTINCT stp.institution) as institution,
+  null AS library_selection,
+  null AS library_source,
+  null AS library_strategy
+UNION ALL
+with st
+MATCH (file)
+WHERE (file:sequencing_file OR file:pathology_file OR file:methylation_array_file OR file:single_cell_sequencing_file OR file:cytogenomic_file)
+MATCH (st)&lt;-[:of_cell_line|of_pdx]-(cl)&lt;--(sm:sample)
+Where (cl: cell_line or cl: pdx)
+MATCH (sm)&lt;--(file)
+OPTIONAL MATCH (st)&lt;-[:of_publication]-(pub:publication)
+OPTIONAL MATCH (st)&lt;--(p:participant)&lt;-[:of_diagnosis]-(dg:diagnosis)
+OPTIONAL MATCH (st)&lt;--(p)&lt;-[:of_follow_up]-(fu:follow_up)
+OPTIONAL MATCH (st)&lt;-[:of_study_personnel]-(stp:study_personnel)
+OPTIONAL MATCH (st)&lt;-[:of_study_funding]-(stf:study_funding)
+with file, sm, st, fu, dg, stf, stp
+RETURN DISTINCT
+  file.id as id,
+  null as pid,
+  CASE LABELS(file)[0]
+        WHEN 'sequencing_file' THEN file.sequencing_file_id
+        WHEN 'single_cell_sequencing_file' THEN file.single_cell_sequencing_file_id
+        WHEN 'cytogenomic_file' THEN file.cytogenomic_file_id
+        WHEN 'pathology_file' THEN file.pathology_file_id
+        WHEN 'methylation_array_file' THEN file.methylation_array_file_id END AS file_id,
+  file.dcf_indexd_guid AS guid,
+  file.file_name AS file_name,
+  CASE LABELS(file)[0]
+        WHEN 'sequencing_file' THEN 'Sequencing'
+        WHEN 'single_cell_sequencing_file' THEN 'Single Cell Sequencing'
+        WHEN 'cytogenomic_file' THEN 'Cytogenomic'
+        WHEN 'pathology_file' THEN 'Pathology imaging'
+        WHEN 'methylation_array_file' THEN 'Methylation array' END AS file_category,
+  file.file_type AS file_type,
+  file.file_description AS file_description,
+  file.file_size AS file_size,
+  file.md5sum AS md5sum,
+  st.study_id AS study_id,
+  st.phs_accession as phs_accession,
+  st.study_acronym as study_acronym,
+  st.study_short_title as study_short_title,
+  null AS participant_id,
+  sm.sample_id AS sample_id,
+  null as combined_filters,
+  null AS participant_filters,
+  COLLECT(DISTINCT {
+      age_at_diagnosis: dg.age_at_diagnosis,
+      diagnosis_anatomic_site: dg.anatomic_site,
+      disease_phase: dg.disease_phase,
+      diagnosis_classification_system: dg.diagnosis_classification_system,
+      diagnosis_verification_status: dg.diagnosis_verification_status,
+      diagnosis_basis: dg.diagnosis_basis,
+      diagnosis_comment: dg.diagnosis_comment,
+      diagnosis_classification: dg.diagnosis_classification
+  }) AS diagnosis_filters,
+  COLLECT(DISTINCT fu.vital_status) as vital_status,
+  COLLECT(DISTINCT {
+      sample_anatomic_site: sm.anatomic_site,
+      participant_age_at_collection: sm.participant_age_at_collection,
+      sample_tumor_status: sm.sample_tumor_status,
+      tumor_classification: sm.tumor_classification
+  }) AS sample_filters,
+  COLLECT(DISTINCT stf.grant_id) as grant_id,
+  COLLECT(DISTINCT stp.institution) as institution,
+  CASE LABELS(file)[0]
+            WHEN 'sequencing_file' THEN file.library_selection
+            WHEN 'single_cell_sequencing_file' THEN file.library_selection
+            ELSE null END AS library_selection,
+  CASE LABELS(file)[0]
+            WHEN 'sequencing_file' THEN file.library_source
+            WHEN 'single_cell_sequencing_file' THEN file.library_source
+            ELSE null END AS library_source,
+  CASE LABELS(file)[0]
+            WHEN 'sequencing_file' THEN file.library_strategy
+            WHEN 'single_cell_sequencing_file' THEN file.library_strategy
+            ELSE null END AS library_strategy
+}
+with id, guid, file_name, file_category, file_type, file_description, file_size, md5sum, study_id, phs_accession, study_acronym, study_short_title, pid, participant_id, sample_id, participant_filters,diagnosis_filters, vital_status, sample_filters, grant_id, institution,library_selection,library_source,library_strategy
+unwind participant_filters as participant_filter
+with id, guid, file_name, file_category, file_type, file_description, file_size, md5sum, study_id, phs_accession, study_acronym, study_short_title, pid, participant_id, sample_id, participant_filter,diagnosis_filters, vital_status, sample_filters, grant_id, institution,library_selection,library_source,library_strategy
+where participant_filter.sex_at_birth in ['Male'] and ANY(element IN ['White'] WHERE element IN participant_filter.race) 
+unwind diagnosis_filters as diagnosis_filter
+with id, guid, file_name, file_category, file_type, file_description, file_size, md5sum, study_id, phs_accession, study_acronym, study_short_title, pid, participant_id, sample_id,diagnosis_filter, vital_status, sample_filters, grant_id, institution,library_selection,library_source,library_strategy
+ with id, guid, file_name, file_category, file_type, file_description, file_size, md5sum, study_id, phs_accession, study_acronym, study_short_title, pid, participant_id, sample_id, vital_status, sample_filters, grant_id, institution,library_selection,library_source,library_strategy
+unwind sample_filters as sample_filter
+with id, guid, file_name, file_category, file_type, file_description, file_size, md5sum, study_id, phs_accession, study_acronym, study_short_title, pid, participant_id, sample_id, sample_filter, grant_id, institution,library_selection,library_source,library_strategy
+with distinct id, guid, file_name, file_category, file_type, file_description, file_size, md5sum, study_id, phs_accession, study_acronym, study_short_title, pid, participant_id, sample_id, grant_id, institution,library_selection,library_source,library_strategy
+call {
+  with id, guid, file_name, file_category, file_type, file_description, file_size, md5sum, study_id, phs_accession, study_acronym, study_short_title, pid, participant_id, sample_id, grant_id, institution,library_selection,library_source,library_strategy
+  return id as fid, guid as dig, file_name as fn, file_category as fc, file_type as ft, file_description as fd, file_size as fsize, md5sum as md5, study_id as sid, phs_accession as pa, study_acronym as sa, study_short_title as sst, pid as u_p_id, participant_id as p_id, sample_id as smid, grant_id as gid, institution as istt,library_selection as ls,library_source as lis,library_strategy as listr
+  UNION ALL
+  with study_id
+  MATCH (file:clinical_measure_file)
+  MATCH (stu:study)&lt;-[:of_clinical_measure_file]-(file)
+  where stu.study_id = study_id
+  OPTIONAL MATCH (stu)&lt;-[:of_study_personnel]-(stp:study_personnel)
+  OPTIONAL MATCH (stu)&lt;-[:of_study_funding]-(stf:study_funding)
+  With file, stu, stf, stp
+  RETURN DISTINCT
+    file.id as fid,
+    file.dcf_indexd_guid AS dig,
+    file.file_name AS fn,
+    'Clinical data' AS fc,
+    file.file_type AS ft,
+    file.file_description AS fd,
+    file.file_size AS fsize,
+    file.md5sum AS md5,
+    stu.study_id AS sid,
+    stu.phs_accession as pa,
+    stu.study_acronym as sa,
+    stu.study_short_title as sst,
+    null AS p_id,
+    null AS u_p_id,
+    null AS smid,
+    COLLECT(DISTINCT stf.grant_id) as gid,
+    COLLECT(DISTINCT stp.institution) as istt,
+    null AS ls,
+    null AS lis,
+    null AS listr
+}
+with fid as id, dig as guid, fn as file_name, fc as file_category, ft as file_type, fd as file_description, fsize as file_size, md5 as md5sum, sid as study_id, pa as phs_accession, sa as study_acronym, sst as study_short_title, u_p_id as unique_participant_id, p_id as participant_id, smid as sample_id, gid as grant_id, istt as institution,ls as library_selection,lis as library_source,listr as library_strategy
+ with DISTINCT id, study_id, unique_participant_id, sample_id
+with id, study_id, unique_participant_id, case sample_id when null then [null] else apoc.text.split(sample_id, ',') end as sample_ids
+unwind sample_ids as single_sample_id
+return  count(distinct study_id) as Studies, count(distinct unique_participant_id) as Participants, count(distinct single_sample_id) as Samples, count(distinct id) as Files</t>
   </si>
   <si>
-    <t>MATCH (s:study)&lt;--(p:participant)
-WHERE p.sex_at_birth IN ['Male'] and p.race in ['White'] and s.phs_accession IN ['phs002529']
-WITH DISTINCT p, s
-RETURN
-coalesce(p.participant_id, '') AS `Participant ID`,
-coalesce(s.phs_accession, '') AS `Study ID`,
-coalesce(p.sex_at_birth, '') AS `Sex` ,
-coalesce(p.race, '') AS `Race`,
-coalesce(p.ethnicity, '') AS `Ethnicity` ,
-coalesce(p.alternate_participant_id, '') AS `Alternate ID`
-Order by p.participant_id Limit 100</t>
+    <t>MATCH (p:participant)--&gt;(st:study)
+where st.phs_accession in ['phs002529']
+optional MATCH (p)&lt;-[:of_sample]-(sm1:sample)&lt;--(cl)&lt;--(sm2:sample)
+WHERE (cl: cell_line or cl: pdx)
+optional Match (sm2)&lt;--(file)
+WHERE (file: sequencing_file OR file:pathology_file OR file:methylation_array_file OR file:single_cell_sequencing_file OR file:cytogenomic_file) 
+with p, case COLLECT(distinct sm1) when [] then []
+                else COLLECT(DISTINCT {
+                        sample_anatomic_site: sm1.anatomic_site,
+                        participant_age_at_collection: sm1.participant_age_at_collection,
+                        sample_tumor_status: sm1.sample_tumor_status,
+                        tumor_classification: sm1.tumor_classification,
+                        assay_method: CASE LABELS(file)[0]
+                                  WHEN 'sequencing_file' THEN 'Sequencing'
+                                  WHEN 'single_cell_sequencing_file' THEN 'Single Cell Sequencing'
+                                  WHEN 'cytogenomic_file' THEN 'Cytogenomic'
+                                  WHEN 'pathology_file' THEN 'Pathology imaging'
+                                  WHEN 'methylation_array_file' THEN 'Methylation array'
+                                  ELSE null END,
+                        file_type: CASE LABELS(file)[0]
+                                  When null then null
+                                  else file.file_type end,
+                        library_selection: CASE LABELS(file)[0]
+                                      WHEN 'sequencing_file' THEN file.library_selection
+                                      WHEN 'single_cell_sequencing_file' THEN file.library_selection
+                                      ELSE null END,
+                        library_source: CASE LABELS(file)[0]
+                                      WHEN 'sequencing_file' THEN file.library_source
+                                      WHEN 'single_cell_sequencing_file' THEN file.library_source
+                                      ELSE null END,
+                        library_strategy: CASE LABELS(file)[0]
+                                      WHEN 'sequencing_file' THEN file.library_strategy
+                                      WHEN 'single_cell_sequencing_file' THEN file.library_strategy
+                                      ELSE null END
+                    }) end AS sample1,
+                    case COLLECT(distinct sm2) 
+                    when [] then []
+                    else COLLECT(DISTINCT {
+                        sample_anatomic_site: sm2.anatomic_site,
+                        participant_age_at_collection: sm2.participant_age_at_collection,
+                        sample_tumor_status: sm2.sample_tumor_status,
+                        tumor_classification: sm2.tumor_classification,
+                        assay_method: CASE LABELS(file)[0]
+                                  WHEN 'sequencing_file' THEN 'Sequencing'
+                                  WHEN 'single_cell_sequencing_file' THEN 'Single Cell Sequencing'
+                                  WHEN 'cytogenomic_file' THEN 'Cytogenomic'
+                                  WHEN 'pathology_file' THEN 'Pathology imaging'
+                                  WHEN 'methylation_array_file' THEN 'Methylation array'
+                                  ELSE null END,
+                        file_type: CASE LABELS(file)[0]
+                                  When null then null
+                                  else file.file_type end,
+                        library_selection: CASE LABELS(file)[0]
+                                      WHEN 'sequencing_file' THEN file.library_selection
+                                      WHEN 'single_cell_sequencing_file' THEN file.library_selection
+                                      ELSE null END,
+                        library_source: CASE LABELS(file)[0]
+                                      WHEN 'sequencing_file' THEN file.library_source
+                                      WHEN 'single_cell_sequencing_file' THEN file.library_source
+                                      ELSE null END,
+                        library_strategy: CASE LABELS(file)[0]
+                                      WHEN 'sequencing_file' THEN file.library_strategy
+                                      WHEN 'single_cell_sequencing_file' THEN file.library_strategy
+                                      ELSE null END
+                    }) end AS sample2
+with p, apoc.coll.union(sample1,sample2) as cell_line_pdx_file_filters
+OPTIONAL MATCH (p)&lt;-[:of_sample]-(sm:sample)&lt;--(file)
+WHERE (file: sequencing_file OR file:pathology_file OR file:methylation_array_file OR file:single_cell_sequencing_file OR file:cytogenomic_file)
+with p, cell_line_pdx_file_filters, COLLECT(DISTINCT {
+              sample_anatomic_site: sm.anatomic_site,
+              participant_age_at_collection: sm.participant_age_at_collection,
+              sample_tumor_status: sm.sample_tumor_status,
+              tumor_classification: sm.tumor_classification,
+              assay_method: CASE LABELS(file)[0]
+                        WHEN 'sequencing_file' THEN 'Sequencing'
+                        WHEN 'single_cell_sequencing_file' THEN 'Single Cell Sequencing'
+                        WHEN 'cytogenomic_file' THEN 'Cytogenomic'
+                        WHEN 'pathology_file' THEN 'Pathology imaging'
+                        WHEN 'methylation_array_file' THEN 'Methylation array' END,
+              file_type: file.file_type,
+              library_selection: CASE LABELS(file)[0]
+                            WHEN 'sequencing_file' THEN file.library_selection
+                            WHEN 'single_cell_sequencing_file' THEN file.library_selection
+                            ELSE null END,
+              library_source: CASE LABELS(file)[0]
+                            WHEN 'sequencing_file' THEN file.library_source
+                              WHEN 'single_cell_sequencing_file' THEN file.library_source
+                            ELSE null END,
+              library_strategy: CASE LABELS(file)[0]
+                            WHEN 'sequencing_file' THEN file.library_strategy
+                            WHEN 'single_cell_sequencing_file' THEN file.library_strategy
+                            ELSE null END
+          }) AS general_file_filters
+OPTIONAL Match (p)&lt;-[:of_sample]-(sm:sample)
+OPTIONAL MATCH (p)&lt;-[:of_clinical_measure_file]-(file1:clinical_measure_file)
+with p, cell_line_pdx_file_filters, general_file_filters,sm, COLLECT(DISTINCT file1.file_type) as file1_types
+UNWIND (case file1_types when [] then [null] else file1_types end)  AS types_1
+with p, cell_line_pdx_file_filters, general_file_filters, COLLECT(DISTINCT {
+          sample_anatomic_site: sm.anatomic_site,
+          participant_age_at_collection: sm.participant_age_at_collection,
+          sample_tumor_status: sm.sample_tumor_status,
+          tumor_classification: sm.tumor_classification,
+          assay_method: CASE types_1 when null then null else 'Clinical data' end,
+          file_type: types_1,
+          library_selection: null,
+          library_source: null,
+          library_strategy: null
+  }) as participant_clinical_measure_file_filters
+OPTIONAL Match (p)&lt;-[:of_sample]-(sm:sample)
+OPTIONAL MATCH (p)&lt;-[:of_radiology_file]-(file1:radiology_file)
+with p, cell_line_pdx_file_filters, general_file_filters, participant_clinical_measure_file_filters, sm, COLLECT(DISTINCT file1.file_type) as file1_types
+UNWIND (case file1_types when [] then [null] else file1_types end)  AS types_1
+with p, cell_line_pdx_file_filters, general_file_filters, participant_clinical_measure_file_filters, COLLECT(DISTINCT {
+          sample_anatomic_site: sm.anatomic_site,
+          participant_age_at_collection: sm.participant_age_at_collection,
+          sample_tumor_status: sm.sample_tumor_status,
+          tumor_classification: sm.tumor_classification,
+          assay_method: CASE types_1 when null then null else 'Radiology imaging' end,
+          file_type: types_1,
+          library_selection: null,
+          library_source: null,
+          library_strategy: null
+  }) as participant_radiology_file_filters
+OPTIONAL MATCH (p)&lt;-[*..4]-(file)
+WHERE (file:clinical_measure_file OR file: sequencing_file OR file:pathology_file OR file:radiology_file OR file:methylation_array_file OR file:single_cell_sequencing_file OR file:cytogenomic_file)
+OPTIONAL MATCH (p)&lt;-[:of_diagnosis]-(dg:diagnosis)
+OPTIONAL MATCH (p)&lt;-[:of_follow_up]-(fu:follow_up)
+OPTIONAL MATCH (st:study)&lt;-[:of_participant]-(p)
+OPTIONAL MATCH (st)&lt;-[:of_study_personnel]-(stp:study_personnel)
+OPTIONAL MATCH (st)&lt;-[:of_study_funding]-(stf:study_funding)
+WITH p, cell_line_pdx_file_filters, general_file_filters, participant_clinical_measure_file_filters, participant_radiology_file_filters, file, fu, st, stf, stp, dg
+with DISTINCT
+  p.id as id,
+  p.participant_id as participant_id,
+  apoc.text.split(p.race, ';') as race,
+  p.race as race_str,
+  p.sex_at_birth as sex_at_birth,
+  p.ethnicity as ethnicity_str,
+  apoc.text.split(p.ethnicity, ';') as ethnicity,
+  p.alternate_participant_id as alternate_participant_id,
+  COLLECT(DISTINCT {
+      age_at_diagnosis: dg.age_at_diagnosis,
+      diagnosis_anatomic_site: dg.anatomic_site,
+      disease_phase: dg.disease_phase,
+      diagnosis_classification_system: dg.diagnosis_classification_system,
+      diagnosis_verification_status: dg.diagnosis_verification_status,
+      diagnosis_basis: dg.diagnosis_basis,
+      diagnosis_comment: dg.diagnosis_comment,
+      diagnosis_classification: dg.diagnosis_classification
+  }) AS diagnosis_filters,
+  COLLECT(DISTINCT fu.vital_status) as vital_status,
+  apoc.coll.union(cell_line_pdx_file_filters, general_file_filters) + participant_clinical_measure_file_filters + participant_radiology_file_filters AS sample_file_filters,
+  st.study_id as study_id,
+  st.phs_accession as phs_accession,
+  COLLECT(DISTINCT stf.grant_id) as grant_id,
+  COLLECT(DISTINCT stp.institution) as institution,
+  st.study_acronym as study_acronym,
+  st.study_short_title as study_short_title
+  with id, participant_id, phs_accession, sex_at_birth, race_str, ethnicity_str, race, ethnicity, alternate_participant_id, diagnosis_filters, vital_status, sample_file_filters
+  where   sex_at_birth in ['Male'] and ANY(element IN ['White'] WHERE element IN race) 
+    with distinct id, participant_id, phs_accession, sex_at_birth, race_str, ethnicity_str, alternate_participant_id
+  return
+  coalesce(participant_id, '') AS `Participant ID`,
+  coalesce(phs_accession, '') AS `Study ID`,
+  coalesce(sex_at_birth, '') AS `Sex` ,
+  coalesce(race_str, '') AS `Race`,
+  coalesce(ethnicity_str, '') AS `Ethnicity` ,
+  coalesce(alternate_participant_id, '') AS `Alternate ID`
+  Order by participant_id Limit 100</t>
   </si>
   <si>
-    <t>Match (s:study)&lt;--(p:participant)&lt;--(d:diagnosis)
-where p.sex_at_birth IN ['Male'] and p.race in ['White'] and s.phs_accession = "phs002529"
-OPTIONAL MATCH(fo:follow_up)--&gt;(p)
-with distinct d, p, s, fo
+    <t>MATCH (p:participant)--&gt;(st:study)
+where st.phs_accession in ['phs002529']
+optional MATCH (p)&lt;-[:of_sample]-(sm1:sample)&lt;--(cl)&lt;--(sm2:sample)
+WHERE (cl: cell_line or cl: pdx)
+optional Match (sm2)&lt;--(file)
+WHERE (file: sequencing_file OR file:pathology_file OR file:methylation_array_file OR file:single_cell_sequencing_file OR file:cytogenomic_file) 
+with p, case COLLECT(distinct sm1) when [] then []
+              else COLLECT(DISTINCT {
+                      sample_anatomic_site: sm1.anatomic_site,
+                      participant_age_at_collection: sm1.participant_age_at_collection,
+                      sample_tumor_status: sm1.sample_tumor_status,
+                      tumor_classification: sm1.tumor_classification,
+                      assay_method: CASE LABELS(file)[0]
+                                WHEN 'sequencing_file' THEN 'Sequencing'
+                                WHEN 'single_cell_sequencing_file' THEN 'Single Cell Sequencing'
+                                WHEN 'cytogenomic_file' THEN 'Cytogenomic'
+                                WHEN 'pathology_file' THEN 'Pathology imaging'
+                                WHEN 'methylation_array_file' THEN 'Methylation array'
+                                ELSE null END,
+                      file_type: CASE LABELS(file)[0]
+                                When null then null
+                                else file.file_type end,
+                      library_selection: CASE LABELS(file)[0]
+                                    WHEN 'sequencing_file' THEN file.library_selection
+                                    WHEN 'single_cell_sequencing_file' THEN file.library_selection
+                                    ELSE null END,
+                      library_source: CASE LABELS(file)[0]
+                                    WHEN 'sequencing_file' THEN file.library_source
+                                    WHEN 'single_cell_sequencing_file' THEN file.library_source
+                                    ELSE null END,
+                      library_strategy: CASE LABELS(file)[0]
+                                    WHEN 'sequencing_file' THEN file.library_strategy
+                                    WHEN 'single_cell_sequencing_file' THEN file.library_strategy
+                                    ELSE null END
+                  }) end AS sample1,
+                  case COLLECT(distinct sm2) 
+                  when [] then []
+                  else COLLECT(DISTINCT {
+                      sample_anatomic_site: sm2.anatomic_site,
+                      participant_age_at_collection: sm2.participant_age_at_collection,
+                      sample_tumor_status: sm2.sample_tumor_status,
+                      tumor_classification: sm2.tumor_classification,
+                      assay_method: CASE LABELS(file)[0]
+                                WHEN 'sequencing_file' THEN 'Sequencing'
+                                WHEN 'single_cell_sequencing_file' THEN 'Single Cell Sequencing'
+                                WHEN 'cytogenomic_file' THEN 'Cytogenomic'
+                                WHEN 'pathology_file' THEN 'Pathology imaging'
+                                WHEN 'methylation_array_file' THEN 'Methylation array'
+                                ELSE null END,
+                      file_type: CASE LABELS(file)[0]
+                                When null then null
+                                else file.file_type end,
+                      library_selection: CASE LABELS(file)[0]
+                                    WHEN 'sequencing_file' THEN file.library_selection
+                                    WHEN 'single_cell_sequencing_file' THEN file.library_selection
+                                    ELSE null END,
+                      library_source: CASE LABELS(file)[0]
+                                    WHEN 'sequencing_file' THEN file.library_source
+                                    WHEN 'single_cell_sequencing_file' THEN file.library_source
+                                    ELSE null END,
+                      library_strategy: CASE LABELS(file)[0]
+                                    WHEN 'sequencing_file' THEN file.library_strategy
+                                    WHEN 'single_cell_sequencing_file' THEN file.library_strategy
+                                    ELSE null END
+                  }) end AS sample2
+with p, apoc.coll.union(sample1,sample2) as cell_line_pdx_file_filters
+OPTIONAL MATCH (p)&lt;-[:of_sample]-(sm:sample)&lt;--(file)
+WHERE (file: sequencing_file OR file:pathology_file OR file:methylation_array_file OR file:single_cell_sequencing_file OR file:cytogenomic_file)
+with p, cell_line_pdx_file_filters, COLLECT(DISTINCT {
+              sample_anatomic_site: sm.anatomic_site,
+              participant_age_at_collection: sm.participant_age_at_collection,
+              sample_tumor_status: sm.sample_tumor_status,
+              tumor_classification: sm.tumor_classification,
+              assay_method: CASE LABELS(file)[0]
+                        WHEN 'sequencing_file' THEN 'Sequencing'
+                        WHEN 'single_cell_sequencing_file' THEN 'Single Cell Sequencing'
+                        WHEN 'cytogenomic_file' THEN 'Cytogenomic'
+                        WHEN 'pathology_file' THEN 'Pathology imaging'
+                        WHEN 'methylation_array_file' THEN 'Methylation array' END,
+              file_type: file.file_type,
+              library_selection: CASE LABELS(file)[0]
+                            WHEN 'sequencing_file' THEN file.library_selection
+                            WHEN 'single_cell_sequencing_file' THEN file.library_selection
+                            ELSE null END,
+              library_source: CASE LABELS(file)[0]
+                            WHEN 'sequencing_file' THEN file.library_source
+                            WHEN 'single_cell_sequencing_file' THEN file.library_source
+                            ELSE null END,
+              library_strategy: CASE LABELS(file)[0]
+                            WHEN 'sequencing_file' THEN file.library_strategy
+                            WHEN 'single_cell_sequencing_file' THEN file.library_strategy
+                            ELSE null END
+          }) AS general_file_filters
+OPTIONAL Match (p)&lt;-[:of_sample]-(sm:sample)
+OPTIONAL MATCH (p)&lt;-[:of_clinical_measure_file]-(file1:clinical_measure_file)
+with p, cell_line_pdx_file_filters, general_file_filters,sm, COLLECT(DISTINCT file1.file_type) as file1_types
+UNWIND (case file1_types when [] then [null] else file1_types end)  AS types_1
+with p, cell_line_pdx_file_filters, general_file_filters, COLLECT(DISTINCT {
+          sample_anatomic_site: sm.anatomic_site,
+          participant_age_at_collection: sm.participant_age_at_collection,
+          sample_tumor_status: sm.sample_tumor_status,
+          tumor_classification: sm.tumor_classification,
+          assay_method: CASE types_1 when null then null else 'Clinical data' end,
+          file_type: types_1,
+          library_selection: null,
+          library_source: null,
+          library_strategy: null
+  }) as participant_clinical_measure_file_filters
+OPTIONAL Match (p)&lt;-[:of_sample]-(sm:sample)
+OPTIONAL MATCH (p)&lt;-[:of_radiology_file]-(file1:radiology_file)
+with p, cell_line_pdx_file_filters, general_file_filters, participant_clinical_measure_file_filters, sm, COLLECT(DISTINCT file1.file_type) as file1_types
+UNWIND (case file1_types when [] then [null] else file1_types end)  AS types_1
+with p, cell_line_pdx_file_filters, general_file_filters, participant_clinical_measure_file_filters, COLLECT(DISTINCT {
+          sample_anatomic_site: sm.anatomic_site,
+          participant_age_at_collection: sm.participant_age_at_collection,
+          sample_tumor_status: sm.sample_tumor_status,
+          tumor_classification: sm.tumor_classification,
+          assay_method: CASE types_1 when null then null else 'Radiology imaging' end,
+          file_type: types_1,
+          library_selection: null,
+          library_source: null,
+          library_strategy: null
+  }) as participant_radiology_file_filters
+MATCH (dg:diagnosis)
+MATCH (p)&lt;-[:of_diagnosis]-(dg)
+OPTIONAL MATCH (p)&lt;-[*..4]-(file)
+WHERE (file:clinical_measure_file OR file: sequencing_file OR file:pathology_file OR file:radiology_file OR file:methylation_array_file OR file:single_cell_sequencing_file OR file:cytogenomic_file)
+OPTIONAL MATCH (p)&lt;-[:of_follow_up]-(fu:follow_up)
+with p, cell_line_pdx_file_filters, general_file_filters, participant_clinical_measure_file_filters,participant_radiology_file_filters, dg, file, fu order by fu.age_at_follow_up desc
+OPTIONAL MATCH (st:study)&lt;-[:of_participant]-(p)
+OPTIONAL MATCH (st)&lt;-[:of_study_personnel]-(stp:study_personnel)
+OPTIONAL MATCH (st)&lt;-[:of_study_funding]-(stf:study_funding)
+WITH p, cell_line_pdx_file_filters, general_file_filters, participant_clinical_measure_file_filters,participant_radiology_file_filters, file, fu, st, stf, stp, dg
+with DISTINCT
+  dg.id as id,
+  dg.diagnosis_classification as diagnosis_classification,
+  dg.disease_phase as disease_phase,
+  dg.diagnosis_classification_system as diagnosis_classification_system,
+  dg.diagnosis_verification_status as diagnosis_verification_status,
+  dg.diagnosis_basis as diagnosis_basis,
+  dg.diagnosis_comment as diagnosis_comment,
+  dg.anatomic_site as diagnosis_anatomic_site,
+  dg.age_at_diagnosis as age_at_diagnosis,
+  p.participant_id as participant_id,
+  apoc.text.split(p.race, ';') as race,
+  p.sex_at_birth as sex_at_birth,
+  apoc.text.split(p.ethnicity, ';') as ethnicity,
+  st.study_id as study_id,
+  st.phs_accession as phs_accession,
+  st.study_acronym as study_acronym,
+  st.study_short_title as study_short_title,
+  head(collect(distinct fu.vital_status)) as last_vital_status,
+  COLLECT(DISTINCT fu.vital_status) as vital_status,
+  apoc.coll.union(cell_line_pdx_file_filters, general_file_filters) + participant_clinical_measure_file_filters + participant_radiology_file_filters AS sample_file_filters,
+  COLLECT(DISTINCT stf.grant_id) as grant_id,
+  COLLECT(DISTINCT stp.institution) as institution
+with id, participant_id, phs_accession, sex_at_birth, race, ethnicity, diagnosis_classification, diagnosis_classification_system, diagnosis_verification_status, diagnosis_basis, diagnosis_comment, disease_phase, diagnosis_anatomic_site, age_at_diagnosis, last_vital_status, vital_status, sample_file_filters
+where   sex_at_birth in ['Male'] and ANY(element IN ['White'] WHERE element IN race)  
+with id, participant_id, phs_accession, diagnosis_classification, diagnosis_classification_system, diagnosis_verification_status, diagnosis_basis, diagnosis_comment, disease_phase, diagnosis_anatomic_site, age_at_diagnosis, last_vital_status, vital_status, sample_file_filters
+with id, participant_id, phs_accession, diagnosis_classification, diagnosis_classification_system, diagnosis_verification_status, diagnosis_basis, diagnosis_comment, disease_phase, diagnosis_anatomic_site, age_at_diagnosis, last_vital_status, vital_status, sample_file_filters
+unwind sample_file_filters as sample_file_filter
+with id, participant_id, phs_accession, diagnosis_classification, diagnosis_classification_system, diagnosis_verification_status, diagnosis_basis, diagnosis_comment, disease_phase, diagnosis_anatomic_site, age_at_diagnosis, last_vital_status, sample_file_filter
+ with distinct id, participant_id, phs_accession, diagnosis_classification, diagnosis_classification_system, diagnosis_verification_status, diagnosis_basis, diagnosis_comment, disease_phase, diagnosis_anatomic_site, age_at_diagnosis, last_vital_status
 return
-coalesce(p.participant_id, '') as `Participant ID`,
-coalesce(s.phs_accession, '') as `Study ID`,
-coalesce(d.diagnosis_classification, '') as `Diagnosis`,
-coalesce(d.diagnosis_classification_system, '') as `Diagnosis Classification System`,
-coalesce(d.diagnosis_verification_status, '') as `Diagnosis Verification Status`,
-coalesce(d.diagnosis_basis, '') as `Diagnosis Basis`,
-coalesce(d.diagnosis_comment, '') as `Diagnosis Comment`,
-coalesce(d.disease_phase, '') as `Disease Phase`,
-coalesce(d.anatomic_site, '') as `Anatomic Site`,
-case d.age_at_diagnosis when -999 then 'Not Reported' else coalesce(d.age_at_diagnosis, '') end as `Age at Diagnosis (days)`,
-coalesce(fo.vital_status, '') as `Vital Status`
-Order by p.participant_id limit 100</t>
+coalesce(participant_id, '') as `Participant ID`,
+coalesce(phs_accession, '') as `Study ID`,
+coalesce(diagnosis_classification, '') as `Diagnosis`,
+coalesce(diagnosis_classification_system, '') as `Diagnosis Classification System`,
+coalesce(diagnosis_verification_status, '') as `Diagnosis Verification Status`,
+coalesce(diagnosis_basis, '') as `Diagnosis Basis`,
+coalesce(diagnosis_comment, '') as `Diagnosis Comment`,
+coalesce(disease_phase, '') as `Disease Phase`,
+coalesce(diagnosis_anatomic_site, '') as `Anatomic Site`,
+case age_at_diagnosis when -999 then 'Not Reported' else coalesce(age_at_diagnosis, '') end as `Age at diagnosis (days)`,
+coalesce(last_vital_status, '') as `Vital Status`
+Order by participant_id limit 100</t>
   </si>
   <si>
-    <t>MATCH (st:study)&lt;-[:of_participant]-(p:participant)
-where p.sex_at_birth IN ['Male'] and p.race in ['White'] and st.phs_accession in ["phs002529"]
-with st, count(p) as num_p
-MATCH (st)&lt;-[:of_participant]-(participant)&lt;-[:of_diagnosis]-(dg:diagnosis)
-with st, num_p, dg.diagnosis_classification as dg_cancers, count(dg.diagnosis_classification) as num_cancers
-ORDER BY num_cancers desc
-with st, num_p, collect(dg_cancers + ' (' + toString(num_cancers) + ')') as cancers
-MATCH (st)&lt;-[:of_participant]-(pa:participant)&lt;-[:of_diagnosis]-(diag:diagnosis)
-with st, num_p, cancers, diag.anatomic_site as dg_sites, count(diag.anatomic_site) as num_sites
-ORDER BY num_sites desc
-with st, num_p, cancers, collect(dg_sites + ' (' + toString(num_sites) + ')') as sites
-MATCH (st)&lt;-[*..5]-(fl)
-WHERE (fl:clinical_measure_file OR fl: sequencing_file OR fl:pathology_file OR fl:radiology_file OR fl:methylation_array_file OR fl:single_cell_sequencing_file OR fl:cytogenomic_file)
-with st, num_p, cancers, sites, fl.file_type as ft, count(fl.file_type) as num_ft
-ORDER BY num_ft desc
-with st, num_p, cancers, sites, collect(ft + ' (' + toString(num_ft) + ')') as file_types, sum(num_ft) as num_files
-OPTIONAL MATCH (st)&lt;-[:of_participant|of_cell_line|of_pdx]-(pcp)&lt;-[:of_sample]-(sm1:sample)
-WHERE (pcp:participant or pcp:cell_line or pcp:pdx)
-WITH st, num_p, cancers, sites, file_types, num_files, count(distinct sm1.sample_id) as num_samples_1
-OPTIONAL MATCH (st)&lt;-[:of_participant]-(participant)&lt;-[:of_sample]-(sm1:sample)&lt;--(cp)&lt;--(sm2:sample)
-WHERE (cp:cell_line or cp:pdx)
-WITH st, num_p, cancers, sites, file_types, num_files, num_samples_1, count(distinct sm2.sample_id) as num_samples_2
-WITH st, num_p, cancers, sites, file_types, num_files, num_samples_1 + num_samples_2 as num_samples
-MATCH (st)&lt;-[*..5]-(file)
+    <t>MATCH (p:participant)--&gt;(st:study)
+where st.phs_accession in ['phs002529']
+optional MATCH (p)&lt;-[:of_sample]-(sm1:sample)&lt;--(cl)&lt;--(sm2:sample)
+WHERE (cl: cell_line or cl: pdx)
+optional Match (sm2)&lt;--(file)
+WHERE (file: sequencing_file OR file:pathology_file OR file:methylation_array_file OR file:single_cell_sequencing_file OR file:cytogenomic_file) 
+with p, case COLLECT(distinct sm1) when [] then []
+                else COLLECT(DISTINCT {
+                        sample_anatomic_site: sm1.anatomic_site,
+                        participant_age_at_collection: sm1.participant_age_at_collection,
+                        sample_tumor_status: sm1.sample_tumor_status,
+                        tumor_classification: sm1.tumor_classification,
+                        assay_method: CASE LABELS(file)[0]
+                                  WHEN 'sequencing_file' THEN 'Sequencing'
+                                  WHEN 'single_cell_sequencing_file' THEN 'Single Cell Sequencing'
+                                  WHEN 'cytogenomic_file' THEN 'Cytogenomic'
+                                  WHEN 'pathology_file' THEN 'Pathology imaging'
+                                  WHEN 'methylation_array_file' THEN 'Methylation array'
+                                  ELSE null END,
+                        file_type: CASE LABELS(file)[0]
+                                  When null then null
+                                  else file.file_type end,
+                        library_selection: CASE LABELS(file)[0]
+                                      WHEN 'sequencing_file' THEN file.library_selection
+                                      WHEN 'single_cell_sequencing_file' THEN file.library_selection
+                                      ELSE null END,
+                        library_source: CASE LABELS(file)[0]
+                                      WHEN 'sequencing_file' THEN file.library_source
+                                      WHEN 'single_cell_sequencing_file' THEN file.library_source
+                                      ELSE null END,
+                        library_strategy: CASE LABELS(file)[0]
+                                      WHEN 'sequencing_file' THEN file.library_strategy
+                                      WHEN 'single_cell_sequencing_file' THEN file.library_strategy
+                                      ELSE null END
+                    }) end AS sample1,
+                    case COLLECT(distinct sm2) 
+                    when [] then []
+                    else COLLECT(DISTINCT {
+                        sample_anatomic_site: sm2.anatomic_site,
+                        participant_age_at_collection: sm2.participant_age_at_collection,
+                        sample_tumor_status: sm2.sample_tumor_status,
+                        tumor_classification: sm2.tumor_classification,
+                        assay_method: CASE LABELS(file)[0]
+                                  WHEN 'sequencing_file' THEN 'Sequencing'
+                                  WHEN 'single_cell_sequencing_file' THEN 'Single Cell Sequencing'
+                                  WHEN 'cytogenomic_file' THEN 'Cytogenomic'
+                                  WHEN 'pathology_file' THEN 'Pathology imaging'
+                                  WHEN 'methylation_array_file' THEN 'Methylation array'
+                                  ELSE null END,
+                        file_type: CASE LABELS(file)[0]
+                                  When null then null
+                                  else file.file_type end,
+                        library_selection: CASE LABELS(file)[0]
+                                      WHEN 'sequencing_file' THEN file.library_selection
+                                      WHEN 'single_cell_sequencing_file' THEN file.library_selection
+                                      ELSE null END,
+                        library_source: CASE LABELS(file)[0]
+                                      WHEN 'sequencing_file' THEN file.library_source
+                                      WHEN 'single_cell_sequencing_file' THEN file.library_source
+                                      ELSE null END,
+                        library_strategy: CASE LABELS(file)[0]
+                                      WHEN 'sequencing_file' THEN file.library_strategy
+                                      WHEN 'single_cell_sequencing_file' THEN file.library_strategy
+                                      ELSE null END
+                    }) end AS sample2
+with p, apoc.coll.union(sample1,sample2) as cell_line_pdx_file_filters
+OPTIONAL MATCH (p)&lt;-[:of_sample]-(sm:sample)&lt;--(file)
+WHERE (file: sequencing_file OR file:pathology_file OR file:methylation_array_file OR file:single_cell_sequencing_file OR file:cytogenomic_file)
+with p, cell_line_pdx_file_filters, COLLECT(DISTINCT {
+              sample_anatomic_site: sm.anatomic_site,
+              participant_age_at_collection: sm.participant_age_at_collection,
+              sample_tumor_status: sm.sample_tumor_status,
+              tumor_classification: sm.tumor_classification,
+              assay_method: CASE LABELS(file)[0]
+                        WHEN 'sequencing_file' THEN 'Sequencing'
+                        WHEN 'single_cell_sequencing_file' THEN 'Single Cell Sequencing'
+                        WHEN 'cytogenomic_file' THEN 'Cytogenomic'
+                        WHEN 'pathology_file' THEN 'Pathology imaging'
+                        WHEN 'methylation_array_file' THEN 'Methylation array' END,
+              file_type: file.file_type,
+              library_selection: CASE LABELS(file)[0]
+                            WHEN 'sequencing_file' THEN file.library_selection
+                            WHEN 'single_cell_sequencing_file' THEN file.library_selection
+                            ELSE null END,
+              library_source: CASE LABELS(file)[0]
+                            WHEN 'sequencing_file' THEN file.library_source
+                              WHEN 'single_cell_sequencing_file' THEN file.library_source
+                            ELSE null END,
+              library_strategy: CASE LABELS(file)[0]
+                            WHEN 'sequencing_file' THEN file.library_strategy
+                            WHEN 'single_cell_sequencing_file' THEN file.library_strategy
+                            ELSE null END
+          }) AS general_file_filters
+OPTIONAL Match (p)&lt;-[:of_sample]-(sm:sample)
+OPTIONAL MATCH (p)&lt;-[:of_clinical_measure_file]-(file1:clinical_measure_file)
+with p, cell_line_pdx_file_filters, general_file_filters,sm, COLLECT(DISTINCT file1.file_type) as file1_types
+UNWIND (case file1_types when [] then [null] else file1_types end)  AS types_1
+with p, cell_line_pdx_file_filters, general_file_filters, COLLECT(DISTINCT {
+          sample_anatomic_site: sm.anatomic_site,
+          participant_age_at_collection: sm.participant_age_at_collection,
+          sample_tumor_status: sm.sample_tumor_status,
+          tumor_classification: sm.tumor_classification,
+          assay_method: CASE types_1 when null then null else 'Clinical data' end,
+          file_type: types_1,
+          library_selection: null,
+          library_source: null,
+          library_strategy: null
+  }) as participant_clinical_measure_file_filters
+OPTIONAL Match (p)&lt;-[:of_sample]-(sm:sample)
+OPTIONAL MATCH (p)&lt;-[:of_radiology_file]-(file1:radiology_file)
+with p, cell_line_pdx_file_filters, general_file_filters, participant_clinical_measure_file_filters, sm, COLLECT(DISTINCT file1.file_type) as file1_types
+UNWIND (case file1_types when [] then [null] else file1_types end)  AS types_1
+with p, cell_line_pdx_file_filters, general_file_filters, participant_clinical_measure_file_filters, COLLECT(DISTINCT {
+          sample_anatomic_site: sm.anatomic_site,
+          participant_age_at_collection: sm.participant_age_at_collection,
+          sample_tumor_status: sm.sample_tumor_status,
+          tumor_classification: sm.tumor_classification,
+          assay_method: CASE types_1 when null then null else 'Radiology imaging' end,
+          file_type: types_1,
+          library_selection: null,
+          library_source: null,
+          library_strategy: null
+  }) as participant_radiology_file_filters
+OPTIONAL MATCH (p)&lt;-[*..4]-(file)
 WHERE (file:clinical_measure_file OR file: sequencing_file OR file:pathology_file OR file:radiology_file OR file:methylation_array_file OR file:single_cell_sequencing_file OR file:cytogenomic_file)
-OPTIONAL MATCH (st)&lt;-[:of_publication]-(pub:publication)
+OPTIONAL MATCH (p)&lt;-[:of_diagnosis]-(dg:diagnosis)
+OPTIONAL MATCH (p)&lt;-[:of_follow_up]-(fu:follow_up)
+OPTIONAL MATCH (st:study)&lt;-[:of_participant]-(p)
 OPTIONAL MATCH (st)&lt;-[:of_study_personnel]-(stp:study_personnel)
-WHERE stp.personnel_type = 'PI'
 OPTIONAL MATCH (st)&lt;-[:of_study_funding]-(stf:study_funding)
-WITH st, num_p, cancers, sites, file_types, num_files, num_samples, file.id as file_id, stf, stp, pub
-order by st.study_id
-RETURN DISTINCT
-  st.study_short_title as `Study Short Title`,
-st.study_id as `Study ID`,
-  CASE WHEN size(cancers) &gt; 5 THEN apoc.text.join(apoc.coll.remove(cancers, 5, 10000), "\n") + "\nRead More"  else apoc.text.join(cancers, "\n") END as `Diagnosis (Top 5)`,
-  CASE WHEN size(sites) &gt; 5 THEN apoc.text.join(apoc.coll.remove(sites, 5, 10000), "\n") + "\nRead More"  else apoc.text.join(sites, "\n") END as `Diagnosis Anatomic Site (Top 5)`,
-  num_p as `Number of Participants`,
-  num_samples as `Number of Samples`,
-  num_files as `Number of Files`,
+WITH p, cell_line_pdx_file_filters, general_file_filters, participant_clinical_measure_file_filters, participant_radiology_file_filters, file, fu, st, stf, stp, dg
+with DISTINCT
+  p.id as id,
+  p.participant_id as participant_id,
+  apoc.text.split(p.race, ';') as race,
+  p.race as race_str,
+  p.sex_at_birth as sex_at_birth,
+  p.ethnicity as ethnicity_str,
+  p.alternate_participant_id as alternate_participant_id,
+  COLLECT(DISTINCT {
+      age_at_diagnosis: dg.age_at_diagnosis,
+      diagnosis_anatomic_site: dg.anatomic_site,
+      disease_phase: dg.disease_phase,
+      diagnosis_classification_system: dg.diagnosis_classification_system,
+      diagnosis_verification_status: dg.diagnosis_verification_status,
+      diagnosis_basis: dg.diagnosis_basis,
+      diagnosis_comment: dg.diagnosis_comment,
+      diagnosis_classification: dg.diagnosis_classification
+  }) AS diagnosis_filters,
+  COLLECT(DISTINCT fu.vital_status) as vital_status,
+  apoc.coll.union(cell_line_pdx_file_filters, general_file_filters) + participant_clinical_measure_file_filters + participant_radiology_file_filters AS sample_file_filters,
+  st.study_id as study_id,
+  st.phs_accession as phs_accession,
+  COLLECT(DISTINCT stf.grant_id) as grant_id,
+  COLLECT(DISTINCT stp.institution) as institution,
+  st.study_acronym as study_acronym,
+  st.study_short_title as study_short_title
+   with id, participant_id, phs_accession, sex_at_birth, race_str, ethnicity_str, alternate_participant_id, diagnosis_filters, vital_status, sample_file_filters
+  where  sex_at_birth in ['Male'] and ANY(element IN ['White'] WHERE element IN apoc.text.split(race_str, ';'))  
+  unwind diagnosis_filters as diagnosis_filter
+  with id, participant_id, phs_accession, sex_at_birth, race_str, ethnicity_str, alternate_participant_id, diagnosis_filter, vital_status, sample_file_filters
+     with id, participant_id, phs_accession, sex_at_birth, race_str, ethnicity_str, alternate_participant_id, vital_status, sample_file_filters
+  unwind sample_file_filters as sample_file_filter
+  with id, participant_id, phs_accession, sex_at_birth, race_str, ethnicity_str, alternate_participant_id, sample_file_filter
+    with distinct id, participant_id, phs_accession, sex_at_birth, race_str, ethnicity_str, alternate_participant_id
+  with distinct phs_accession as study_ids
+  MATCH (st:study)&lt;-[:of_participant]-(p:participant)
+  where st.study_id = study_ids
+  with st, count(p) as num_p
+  MATCH (st:study)&lt;-[:of_participant]-(participant)&lt;-[:of_diagnosis]-(dg:diagnosis)
+  with st, num_p, dg.diagnosis_classification as dg_cancers, count(dg.diagnosis_classification) as num_cancers
+  ORDER BY num_cancers desc
+  with st, num_p, collect(dg_cancers + ' (' + toString(num_cancers) + ')') as cancers
+  MATCH (st)&lt;-[:of_participant]-(pa:participant)&lt;-[:of_diagnosis]-(diag:diagnosis)
+  with st, num_p, cancers, diag.anatomic_site as dg_sites, count(diag.anatomic_site) as num_sites
+  ORDER BY num_sites desc
+  with st, num_p, cancers, collect(dg_sites + ' (' + toString(num_sites) + ')') as sites
+  MATCH (st)&lt;-[*..5]-(fl)
+  WHERE (fl:clinical_measure_file OR fl: sequencing_file OR fl:pathology_file OR fl:radiology_file OR fl:methylation_array_file OR fl:single_cell_sequencing_file OR fl:cytogenomic_file)
+  with st, num_p, cancers, sites, fl.file_type as ft, count(fl.file_type) as num_ft
+  ORDER BY num_ft desc
+  with st, num_p, cancers, sites, collect(ft + ' (' + toString(num_ft) + ')') as file_types, sum(num_ft) as num_files
+  OPTIONAL MATCH (st)&lt;-[:of_participant|of_cell_line|of_pdx]-(pcp)&lt;-[:of_sample]-(sm1:sample)
+  WHERE (pcp:participant or pcp:cell_line or pcp:pdx)
+  WITH st, num_p, cancers, sites, file_types, num_files, count(distinct sm1.sample_id) as num_samples_1
+  OPTIONAL MATCH (st)&lt;-[:of_participant]-(participant)&lt;-[:of_sample]-(sm1:sample)&lt;--(cp)&lt;--(sm2:sample)
+  WHERE (cp:cell_line or cp:pdx)
+  WITH st, num_p, cancers, sites, file_types, num_files, num_samples_1, count(distinct sm2.sample_id) as num_samples_2
+  WITH st, num_p, cancers, sites, file_types, num_files, num_samples_1 + num_samples_2 as num_samples
+  MATCH (st)&lt;-[*..5]-(file)
+  WHERE (file:clinical_measure_file OR file: sequencing_file OR file:pathology_file OR file:radiology_file OR file:methylation_array_file OR file:single_cell_sequencing_file OR file:cytogenomic_file)
+  OPTIONAL MATCH (st)&lt;-[:of_publication]-(pub:publication)
+  OPTIONAL MATCH (st)&lt;-[:of_study_personnel]-(stp:study_personnel)
+  WHERE stp.personnel_type = 'PI'
+  OPTIONAL MATCH (st)&lt;-[:of_study_funding]-(stf:study_funding)
+  WITH st, num_p, cancers, sites, file_types, num_files, num_samples, file.id as file_id, stf, stp, pub
+  with DISTINCT
+      st.id as id,
+      st.study_id as study_id,
+      apoc.text.join(COLLECT(DISTINCT stf.grant_id), ';') as grant_id,
+      apoc.text.join(COLLECT(DISTINCT pub.pubmed_id), ';') as pubmed_ids,
+      st.phs_accession as phs_accession,
+      st.study_short_title as study_short_title,
+      st.study_acronym as study_acronym,
+      apoc.text.join(COLLECT(DISTINCT stp.personnel_name), ';') as PIs,
+      num_p as num_of_participants,
+      cancers as diagnosis_cancer,
+      sites as diagnosis_anatomic_site,
+      file_types as file_types,
+      num_samples as num_of_samples,
+      num_files as num_of_files
+  RETURN DISTINCT
+  study_short_title as `Study Short Title`,
+  study_id as `Study ID`,
+  CASE WHEN size(diagnosis_cancer) &gt; 5 THEN apoc.text.join(apoc.coll.remove(diagnosis_cancer, 5, 10000), "\n") + "\nRead More"  else apoc.text.join(diagnosis_cancer, "\n") END as `Diagnosis (Top 5)`,
+  CASE WHEN size(diagnosis_anatomic_site) &gt; 5 THEN apoc.text.join(apoc.coll.remove(diagnosis_anatomic_site, 5, 10000), "\n") + "\nRead More"  else apoc.text.join(diagnosis_anatomic_site, "\n") END as `Diagnosis Anatomic Site (Top 5)`,
+  num_of_participants as `Number of Participants`,
+  num_of_samples as `Number of Samples`,
+  num_of_files as `Number of Files`,
   CASE WHEN size(file_types) &gt; 5 THEN apoc.text.join(apoc.coll.remove(file_types, 5, 10000), "\n") + "\nRead More"  else apoc.text.join(file_types, "\n") END as `File Type (Top 5)`,
-  apoc.text.join(COLLECT(DISTINCT pub.pubmed_id), ';') as `PubMed ID`,
-  apoc.text.join(COLLECT(DISTINCT stp.personnel_name), ';') as `Principal Investigator(s)`,
-  apoc.text.join(COLLECT(DISTINCT stf.grant_id), ';') as `Grant ID`</t>
+  pubmed_ids as `PubMed ID`,
+  PIs as `Principal Investigator(s)`,
+  grant_id as `Grant ID` limit 100</t>
   </si>
   <si>
-    <t xml:space="preserve">CALL {
-  MATCH (st:study)&lt;-[:of_participant]-(p:participant)&lt;-[:of_sample]-(sm:sample)
-  WHERE p.sex_at_birth IN ['Male'] and p.race in ['White'] and st.phs_accession IN ['phs002529']
-  return st, p.participant_id as participant_id, sm
-  union all
-  MATCH (st:study)&lt;-[:of_participant]-(p:participant)&lt;-[:of_sample]-(sm1:sample)&lt;--(cp)&lt;--(sm2:sample)
-  WHERE (cp:cell_line or cp:pdx) and p.sex_at_birth IN ['Male'] and p.race in ['White'] and st.phs_accession IN ['phs002529']
-  with st, p.participant_id as participant_id, [sm1,sm2] as sampleArr
-  unwind sampleArr as sm
-  return st, participant_id, sm
+    <t>MATCH (st:study)
+where st.phs_accession in ['phs002529']
+with st
+call {
+  with st
+  MATCH (sm:sample)
+        OPTIONAL MATCH (p:participant)&lt;-[*..3]-(sm)
+        optional match (sm)&lt;-[*..3]-(file)
+        WHERE (file: sequencing_file OR file:pathology_file OR file:methylation_array_file OR file:single_cell_sequencing_file OR file:cytogenomic_file)
+        MATCH (st)&lt;-[:of_participant]-(p)
+        OPTIONAL MATCH (p)&lt;-[:of_diagnosis]-(dg:diagnosis)
+        OPTIONAL MATCH (p)&lt;-[:of_follow_up]-(fu:follow_up)
+        OPTIONAL MATCH (st)&lt;-[:of_study_personnel]-(stp:study_personnel)
+        OPTIONAL MATCH (st)&lt;-[:of_study_funding]-(stf:study_funding)
+        WITH file, fu, p, st, sm, stf, stp, dg
+        RETURN DISTINCT
+          sm.id as id,
+          p.id as pid,
+          sm.sample_id as sample_id,
+          p.participant_id as participant_id,
+          apoc.text.split(p.race, ';') as race,
+          p.sex_at_birth as sex_at_birth,
+          apoc.text.split(p.ethnicity, ';') as ethnicity,
+          sm.anatomic_site as sample_anatomic_site,
+          sm.diagnosis_classification as sample_diagnosis_classification,
+          sm.diagnosis_classification_system as sample_diagnosis_classification_system,
+          sm.diagnosis_verification_status as sample_diagnosis_verification_status,
+          sm.diagnosis_basis as sample_diagnosis_basis,
+          sm.diagnosis_comment as sample_diagnosis_comment,
+          sm.participant_age_at_collection as participant_age_at_collection,
+          sm.sample_tumor_status as sample_tumor_status,
+          sm.tumor_classification as tumor_classification,
+          st.study_id as study_id,
+          st.phs_accession as phs_accession,
+          st.study_acronym as study_acronym,
+          st.study_short_title as study_short_title,
+          COLLECT(DISTINCT {
+              age_at_diagnosis: dg.age_at_diagnosis,
+              diagnosis_anatomic_site: dg.anatomic_site,
+              disease_phase: dg.disease_phase,
+              diagnosis_classification_system: dg.diagnosis_classification_system,
+              diagnosis_verification_status: dg.diagnosis_verification_status,
+              diagnosis_basis: dg.diagnosis_basis,
+              diagnosis_comment: dg.diagnosis_comment,
+              diagnosis_classification: dg.diagnosis_classification
+          }) AS diagnosis_filters,
+          COLLECT(DISTINCT fu.vital_status) as vital_status,
+          COLLECT(DISTINCT {
+              assay_method: CASE LABELS(file)[0]
+                        WHEN 'sequencing_file' THEN 'Sequencing'
+                        WHEN 'single_cell_sequencing_file' THEN 'Single Cell Sequencing'
+                        WHEN 'cytogenomic_file' THEN 'Cytogenomic'
+                        WHEN 'pathology_file' THEN 'Pathology imaging'
+                        WHEN 'methylation_array_file' THEN 'Methylation array' 
+                        ELSE null END,
+              file_type: file.file_type,
+              library_selection: CASE LABELS(file)[0]
+                            WHEN 'sequencing_file' THEN file.library_selection
+                            WHEN 'single_cell_sequencing_file' THEN file.library_selection
+                            ELSE null END,
+              library_source: CASE LABELS(file)[0]
+                            WHEN 'sequencing_file' THEN file.library_source
+                            WHEN 'single_cell_sequencing_file' THEN file.library_source
+                            ELSE null END,
+              library_strategy: CASE LABELS(file)[0]
+                            WHEN 'sequencing_file' THEN file.library_strategy
+                             WHEN 'single_cell_sequencing_file' THEN file.library_strategy
+                            ELSE null END
+          }) AS file_filters,
+          COLLECT(DISTINCT stf.grant_id) as grant_id,
+          COLLECT(DISTINCT stp.institution) as institution
+        union all
+        with st
+        MATCH (sm:sample)
+        MATCH (st)&lt;-[:of_cell_line|of_pdx]-(cl)&lt;--(sm)
+        Where (cl:cell_line or cl:pdx)
+        optional Match (sm)&lt;--(file)
+        WHERE (file: sequencing_file OR file:pathology_file OR file:methylation_array_file OR file:single_cell_sequencing_file OR file:cytogenomic_file)
+        MATCH (st)&lt;-[:of_participant]-(p:participant)
+        OPTIONAL MATCH (p)&lt;-[:of_diagnosis]-(dg:diagnosis)
+        OPTIONAL MATCH (p)&lt;-[:of_follow_up]-(fu:follow_up)
+        OPTIONAL MATCH (st)&lt;-[:of_study_personnel]-(stp:study_personnel)
+        OPTIONAL MATCH (st)&lt;-[:of_study_funding]-(stf:study_funding)
+        WITH sm, file, fu, st, stf, stp, dg
+        RETURN DISTINCT
+          sm.id as id,
+          null as pid,
+          sm.sample_id as sample_id,
+          null as participant_id,
+          null as race,
+          null as sex_at_birth,
+          null as ethnicity,
+          sm.anatomic_site as sample_anatomic_site,
+          sm.diagnosis_classification as sample_diagnosis_classification,
+          sm.diagnosis_classification_system as sample_diagnosis_classification_system,
+          sm.diagnosis_verification_status as sample_diagnosis_verification_status,
+          sm.diagnosis_basis as sample_diagnosis_basis,
+          sm.diagnosis_comment as sample_diagnosis_comment,
+          sm.participant_age_at_collection as participant_age_at_collection,
+          sm.sample_tumor_status as sample_tumor_status,
+          sm.tumor_classification as tumor_classification,
+          st.study_id as study_id,
+          st.phs_accession as phs_accession,
+          st.study_acronym as study_acronym,
+          st.study_short_title as study_short_title,
+          COLLECT(DISTINCT {
+              age_at_diagnosis: dg.age_at_diagnosis,
+              diagnosis_anatomic_site: dg.anatomic_site,
+              disease_phase: dg.disease_phase,
+              diagnosis_classification_system: dg.diagnosis_classification_system,
+              diagnosis_verification_status: dg.diagnosis_verification_status,
+              diagnosis_basis: dg.diagnosis_basis,
+              diagnosis_comment: dg.diagnosis_comment,
+              diagnosis_classification: dg.diagnosis_classification
+          }) AS diagnosis_filters,
+          COLLECT(DISTINCT fu.vital_status) as vital_status,
+          CASE COLLECT(file) WHEN [] THEN []
+                    ELSE COLLECT(DISTINCT {
+                        assay_method: CASE LABELS(file)[0]
+                                  WHEN 'sequencing_file' THEN 'Sequencing'
+                                  WHEN 'single_cell_sequencing_file' THEN 'Single Cell Sequencing'
+                                  WHEN 'cytogenomic_file' THEN 'Cytogenomic'
+                                  WHEN 'pathology_file' THEN 'Pathology imaging'
+                                  WHEN 'methylation_array_file' THEN 'Methylation array' 
+                                  ELSE null END,
+                        file_type: file.file_type,
+                        library_selection: CASE LABELS(file)[0]
+                                      WHEN 'sequencing_file' THEN file.library_selection
+                                      WHEN 'single_cell_sequencing_file' THEN file.library_selection
+                                      ELSE null END,
+                        library_source: CASE LABELS(file)[0]
+                                      WHEN 'sequencing_file' THEN file.library_source
+                                      WHEN 'single_cell_sequencing_file' THEN file.library_source
+                                      ELSE null END,
+                        library_strategy: CASE LABELS(file)[0]
+                                      WHEN 'sequencing_file' THEN file.library_strategy
+                                      WHEN 'single_cell_sequencing_file' THEN file.library_strategy
+                                      ELSE null END
+                    }) END AS file_filters,
+          COLLECT(DISTINCT stf.grant_id) as grant_id,
+          COLLECT(DISTINCT stp.institution) as institution
 }
+ with id, sample_id, participant_id, study_id, sex_at_birth, race, ethnicity, sample_anatomic_site, sample_diagnosis_classification, sample_diagnosis_classification_system, sample_diagnosis_verification_status, sample_diagnosis_basis, sample_diagnosis_comment, participant_age_at_collection, sample_tumor_status, tumor_classification, diagnosis_filters, vital_status, file_filters, phs_accession
+where  sex_at_birth in ['Male'] and ANY(element IN ['White'] WHERE element IN race)  
+unwind diagnosis_filters as diagnosis_filter
+with id, sample_id, participant_id, study_id, sample_anatomic_site, sample_diagnosis_classification, sample_diagnosis_classification_system, sample_diagnosis_verification_status, sample_diagnosis_basis, sample_diagnosis_comment, participant_age_at_collection, sample_tumor_status, tumor_classification, diagnosis_filter, vital_status, file_filters, phs_accession
+ with id, sample_id, participant_id, study_id, sample_anatomic_site, sample_diagnosis_classification, sample_diagnosis_classification_system, sample_diagnosis_verification_status, sample_diagnosis_basis, sample_diagnosis_comment, participant_age_at_collection, sample_tumor_status, tumor_classification, vital_status, file_filters, phs_accession
+ with id, sample_id, participant_id, study_id, sample_anatomic_site, sample_diagnosis_classification, sample_diagnosis_classification_system, sample_diagnosis_verification_status, sample_diagnosis_basis, sample_diagnosis_comment, participant_age_at_collection, sample_tumor_status, tumor_classification, file_filters, phs_accession
+ unwind file_filters as file_filter
+with id, sample_id, participant_id, study_id, sample_anatomic_site, sample_diagnosis_classification, sample_diagnosis_classification_system, sample_diagnosis_verification_status, sample_diagnosis_basis, sample_diagnosis_comment, participant_age_at_collection, sample_tumor_status, tumor_classification, file_filter, phs_accession
+ with distinct id, sample_id, participant_id, study_id, sample_anatomic_site, sample_diagnosis_classification, sample_diagnosis_classification_system, sample_diagnosis_verification_status, sample_diagnosis_basis, sample_diagnosis_comment, participant_age_at_collection, sample_tumor_status, tumor_classification, phs_accession
 RETURN DISTINCT
-          sm.sample_id as `Sample ID`,
+          sample_id as `Sample ID`,
           participant_id as `Participant ID`,
-          st.study_id as `Study ID`,
-          sm.anatomic_site as `Anatomic Site`,
-          case sm.participant_age_at_collection when -999 then 'Not Reported' else coalesce(sm.participant_age_at_collection, '') end as `Age at Sample Collection`,
-          coalesce(sm.diagnosis_classification, '') as `Diagnosis`,
-          coalesce(sm.diagnosis_classification_system, '') as `Diagnosis Classification System`,
-          coalesce(sm.diagnosis_verification_status, '') as `Diagnosis Verification Status`,
-          coalesce(sm.diagnosis_basis, '') as `Diagnosis Basis`,
-          coalesce(sm.diagnosis_comment, '') as `Diagnosis Comment`,
-          sm.sample_tumor_status as `Sample Tumor Status`,
-          sm.tumor_classification as `Sample Tumor Classification`
-Order by sm.sample_id Limit 100
-          </t>
+          study_id as `Study ID`,
+          sample_anatomic_site as `Anatomic Site`,
+          case participant_age_at_collection when -999 then 'Not Reported' else coalesce(participant_age_at_collection, '') end as `Age at Sample Collection`,
+          coalesce(sample_diagnosis_classification, '') as `Diagnosis`,
+          coalesce(sample_diagnosis_classification_system, '') as `Diagnosis Classification System`,
+          coalesce(sample_diagnosis_verification_status, '') as `Diagnosis Verification Status`,
+          coalesce(sample_diagnosis_basis, '') as `Diagnosis Basis`,
+          coalesce(sample_diagnosis_comment, '') as `Diagnosis Comment`,
+          sample_tumor_status as `Sample Tumor Status`,
+          tumor_classification as `Sample Tumor Classification`
+Order by sample_id Limit 100</t>
   </si>
   <si>
-    <t>CALL {
+    <t>Match (st:study)
+where st.phs_accession in ['phs002529']
+with st
+Call {
+with st
 MATCH (file:clinical_measure_file)
-        MATCH (p:participant)-[:of_clinical_measure_file]-(file)
-        MATCH (st:study)&lt;-[:of_participant]-(p)
-        Where p.sex_at_birth in ['Male'] and p.race in ['White'] and st.phs_accession in ['phs002529']
-        with file, p, st,
-        ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
-        toInteger(floor(log(file.file_size)/log(1024))) as i,
-        2 as precision
-        WITH file, p, st,
-        file.file_size /(1024^i) AS value,
+MATCH (p:participant)-[:of_clinical_measure_file]-(file)
+MATCH (st)&lt;-[:of_participant]-(p)
+OPTIONAL MATCH (p)&lt;-[:of_sample]-(sm:sample)
+OPTIONAL MATCH (st)&lt;-[:of_publication]-(pub:publication)
+OPTIONAL MATCH (p)&lt;-[:of_diagnosis]-(dg:diagnosis)
+OPTIONAL MATCH (p)&lt;-[:of_follow_up]-(fu:follow_up)
+OPTIONAL MATCH (st)&lt;-[:of_study_personnel]-(stp:study_personnel)
+OPTIONAL MATCH (st)&lt;-[:of_study_funding]-(stf:study_funding)
+UNWIND apoc.text.split(p.ethnicity, ';') AS ethnicities
+UNWIND apoc.text.split(p.race, ';') AS races
+RETURN DISTINCT
+  file.id as id,
+  p.id as pid,
+  file.clinical_measure_file_id AS file_id,
+  file.dcf_indexd_guid AS guid,
+  file.file_name AS file_name,
+  'Clinical data' AS file_category,
+  file.file_type AS file_type,
+  file.file_description AS file_description,
+  file.file_size AS file_size,
+  file.md5sum AS md5sum,
+  st.study_id AS study_id,
+  st.phs_accession as phs_accession,
+  st.study_acronym as study_acronym,
+  st.study_short_title as study_short_title,
+  p.participant_id AS participant_id,
+  null AS sample_id,
+  null as combined_filters,
+  COLLECT(DISTINCT {
+      race: races,
+      sex_at_birth: p.sex_at_birth,
+      ethnicity: ethnicities
+  }) AS participant_filters,
+  COLLECT(DISTINCT {
+      age_at_diagnosis: dg.age_at_diagnosis,
+      diagnosis_anatomic_site: dg.anatomic_site,
+      disease_phase: dg.disease_phase,
+      diagnosis_classification_system: dg.diagnosis_classification_system,
+      diagnosis_verification_status: dg.diagnosis_verification_status,
+      diagnosis_basis: dg.diagnosis_basis,
+      diagnosis_comment: dg.diagnosis_comment,
+      diagnosis_classification: dg.diagnosis_classification
+  }) AS diagnosis_filters,
+  COLLECT(DISTINCT fu.vital_status) as vital_status,
+  COLLECT(DISTINCT {
+      sample_anatomic_site: sm.anatomic_site,
+      participant_age_at_collection: sm.participant_age_at_collection,
+      sample_tumor_status: sm.sample_tumor_status,
+      tumor_classification: sm.tumor_classification
+  }) AS sample_filters,
+  COLLECT(DISTINCT stf.grant_id) as grant_id,
+  COLLECT(DISTINCT stp.institution) as institution,      
+  null AS library_selection,
+  null AS library_source,
+  null AS library_strategy
+UNION ALL
+with st
+MATCH (file:methylation_array_file)
+MATCH (p:participant)&lt;-[:of_sample]-(sm1:sample)&lt;-[*0..2]-(sm:sample)&lt;-[:of_methylation_array_file]-(file)
+MATCH (st)&lt;-[:of_participant]-(p)
+OPTIONAL MATCH (st)&lt;-[:of_publication]-(pub:publication)
+OPTIONAL MATCH (p)&lt;-[:of_diagnosis]-(dg:diagnosis)
+OPTIONAL MATCH (p)&lt;-[:of_follow_up]-(fu:follow_up)
+OPTIONAL MATCH (st)&lt;-[:of_study_personnel]-(stp:study_personnel)
+OPTIONAL MATCH (st)&lt;-[:of_study_funding]-(stf:study_funding)
+UNWIND apoc.text.split(p.ethnicity, ';') AS ethnicities
+UNWIND apoc.text.split(p.race, ';') AS races
+with file, p, sm1, sm, st, ethnicities, races, fu, dg, stf, stp
+RETURN DISTINCT
+  file.id as id,
+  p.id as pid,
+  file.methylation_array_file_id AS file_id,
+  file.dcf_indexd_guid AS guid,
+  file.file_name AS file_name,
+  'Methylation array' AS file_category,
+  file.file_type AS file_type,
+  file.file_description AS file_description,
+  file.file_size AS file_size,
+  file.md5sum AS md5sum,
+  st.study_id AS study_id,
+  st.phs_accession as phs_accession,
+  st.study_acronym as study_acronym,
+  st.study_short_title as study_short_title,
+  p.participant_id AS participant_id,
+  CASE sm1.sample_id WHEN sm.sample_id THEN sm.sample_id
+            ELSE sm1.sample_id + ',' + sm.sample_id END AS sample_id,
+  null as combined_filters,
+  COLLECT(DISTINCT {
+      race: races,
+      sex_at_birth: p.sex_at_birth,
+      ethnicity: ethnicities
+  }) AS participant_filters,
+  COLLECT(DISTINCT {
+      age_at_diagnosis: dg.age_at_diagnosis,
+      diagnosis_anatomic_site: dg.anatomic_site,
+      disease_phase: dg.disease_phase,
+      diagnosis_classification_system: dg.diagnosis_classification_system,
+      diagnosis_verification_status: dg.diagnosis_verification_status,
+      diagnosis_basis: dg.diagnosis_basis,
+      diagnosis_comment: dg.diagnosis_comment,
+      diagnosis_classification: dg.diagnosis_classification
+  }) AS diagnosis_filters,
+  COLLECT(DISTINCT fu.vital_status) as vital_status,
+  CASE sm1.sample_id WHEN sm.sample_id THEN COLLECT(DISTINCT {
+                              sample_anatomic_site: sm.anatomic_site,
+                              participant_age_at_collection: sm.participant_age_at_collection,
+                              sample_tumor_status: sm.sample_tumor_status,
+                              tumor_classification: sm.tumor_classification
+                          })
+            ELSE apoc.coll.union(COLLECT(DISTINCT {
+                              sample_anatomic_site: sm1.anatomic_site,
+                              participant_age_at_collection: sm1.participant_age_at_collection,
+                              sample_tumor_status: sm1.sample_tumor_status,
+                              tumor_classification: sm1.tumor_classification
+                          }), COLLECT(DISTINCT {
+                              sample_anatomic_site: sm.anatomic_site,
+                              participant_age_at_collection: sm.participant_age_at_collection,
+                              sample_tumor_status: sm.sample_tumor_status,
+                              tumor_classification: sm.tumor_classification
+                          })) END AS sample_filters,
+  COLLECT(DISTINCT stf.grant_id) as grant_id,
+  COLLECT(DISTINCT stp.institution) as institution,
+  null AS library_selection,
+  null AS library_source,
+  null AS library_strategy
+UNION ALL
+with st
+MATCH (file:pathology_file)
+MATCH (p:participant)&lt;-[:of_sample]-(sm1:sample)&lt;-[*0..2]-(sm:sample)&lt;-[:of_pathology_file]-(file)
+MATCH (st)&lt;-[:of_participant]-(p)
+OPTIONAL MATCH (st)&lt;-[:of_publication]-(pub:publication)
+OPTIONAL MATCH (p)&lt;-[:of_diagnosis]-(dg:diagnosis)
+OPTIONAL MATCH (p)&lt;-[:of_follow_up]-(fu:follow_up)
+OPTIONAL MATCH (st)&lt;-[:of_study_personnel]-(stp:study_personnel)
+OPTIONAL MATCH (st)&lt;-[:of_study_funding]-(stf:study_funding)
+UNWIND apoc.text.split(p.ethnicity, ';') AS ethnicities
+UNWIND apoc.text.split(p.race, ';') AS races
+with file, p, sm1, sm, st, ethnicities, races, fu, dg, stf, stp
+RETURN DISTINCT
+  file.id as id,
+  p.id as pid,
+  file.pathology_file_id AS file_id,
+  file.dcf_indexd_guid AS guid,
+  file.file_name AS file_name,
+  'Pathology imaging' AS file_category,
+  file.file_type AS file_type,
+  file.file_description AS file_description,
+  file.file_size AS file_size,
+  file.md5sum AS md5sum,
+  st.study_id AS study_id,
+  st.phs_accession as phs_accession,
+  st.study_acronym as study_acronym,
+  st.study_short_title as study_short_title,
+  p.participant_id AS participant_id,
+  CASE sm1.sample_id WHEN sm.sample_id THEN sm.sample_id
+            ELSE sm1.sample_id + ',' + sm.sample_id END AS sample_id,
+  null as combined_filters,
+  COLLECT(DISTINCT {
+      race: races,
+      sex_at_birth: p.sex_at_birth,
+      ethnicity: ethnicities
+  }) AS participant_filters,
+  COLLECT(DISTINCT {
+      age_at_diagnosis: dg.age_at_diagnosis,
+      diagnosis_anatomic_site: dg.anatomic_site,
+      disease_phase: dg.disease_phase,
+      diagnosis_classification_system: dg.diagnosis_classification_system,
+      diagnosis_verification_status: dg.diagnosis_verification_status,
+      diagnosis_basis: dg.diagnosis_basis,
+      diagnosis_comment: dg.diagnosis_comment,
+      diagnosis_classification: dg.diagnosis_classification
+  }) AS diagnosis_filters,
+  COLLECT(DISTINCT fu.vital_status) as vital_status,
+  CASE sm1.sample_id WHEN sm.sample_id THEN COLLECT(DISTINCT {
+                              sample_anatomic_site: sm.anatomic_site,
+                              participant_age_at_collection: sm.participant_age_at_collection,
+                              sample_tumor_status: sm.sample_tumor_status,
+                              tumor_classification: sm.tumor_classification
+                          })
+            ELSE apoc.coll.union(COLLECT(DISTINCT {
+                              sample_anatomic_site: sm1.anatomic_site,
+                              participant_age_at_collection: sm1.participant_age_at_collection,
+                              sample_tumor_status: sm1.sample_tumor_status,
+                              tumor_classification: sm1.tumor_classification
+                          }), COLLECT(DISTINCT {
+                              sample_anatomic_site: sm.anatomic_site,
+                              participant_age_at_collection: sm.participant_age_at_collection,
+                              sample_tumor_status: sm.sample_tumor_status,
+                              tumor_classification: sm.tumor_classification
+                          })) END AS sample_filters,
+  COLLECT(DISTINCT stf.grant_id) as grant_id,
+  COLLECT(DISTINCT stp.institution) as institution,
+  file.library_selection AS library_selection,
+  file.library_source AS library_source,
+  file.library_strategy AS library_strategy
+UNION ALL
+with st
+MATCH (file:radiology_file)
+MATCH (p:participant)&lt;-[:of_radiology_file]-(file)
+MATCH (st)&lt;-[:of_participant]-(p)
+OPTIONAL MATCH (p)&lt;-[:of_sample]-(sm:sample)
+OPTIONAL MATCH (st)&lt;-[:of_publication]-(pub:publication)
+OPTIONAL MATCH (p)&lt;-[:of_diagnosis]-(dg:diagnosis)
+OPTIONAL MATCH (p)&lt;-[:of_follow_up]-(fu:follow_up)
+OPTIONAL MATCH (st)&lt;-[:of_study_personnel]-(stp:study_personnel)
+OPTIONAL MATCH (st)&lt;-[:of_study_funding]-(stf:study_funding)
+UNWIND apoc.text.split(p.ethnicity, ';') AS ethnicities
+UNWIND apoc.text.split(p.race, ';') AS races
+RETURN DISTINCT
+  file.id as id,
+  p.id as pid,
+  file.radiology_file_id AS file_id,
+  file.dcf_indexd_guid AS guid,
+  file.file_name AS file_name,
+  'Radiology imaging' AS file_category,
+  file.file_type AS file_type,
+  file.file_description AS file_description,
+  file.file_size AS file_size,
+  file.md5sum AS md5sum,
+  st.study_id AS study_id,
+  st.phs_accession as phs_accession,
+  st.study_acronym as study_acronym,
+  st.study_short_title as study_short_title,
+  p.participant_id AS participant_id,
+  null AS sample_id,
+  null as combined_filters,
+  COLLECT(DISTINCT {
+      race: races,
+      sex_at_birth: p.sex_at_birth,
+      ethnicity: ethnicities
+  }) AS participant_filters,
+  COLLECT(DISTINCT {
+      age_at_diagnosis: dg.age_at_diagnosis,
+      diagnosis_anatomic_site: dg.anatomic_site,
+      disease_phase: dg.disease_phase,
+      diagnosis_classification_system: dg.diagnosis_classification_system,
+      diagnosis_verification_status: dg.diagnosis_verification_status,
+      diagnosis_basis: dg.diagnosis_basis,
+      diagnosis_comment: dg.diagnosis_comment,
+      diagnosis_classification: dg.diagnosis_classification
+  }) AS diagnosis_filters,
+  COLLECT(DISTINCT fu.vital_status) as vital_status,
+  COLLECT(DISTINCT {
+      sample_anatomic_site: sm.anatomic_site,
+      participant_age_at_collection: sm.participant_age_at_collection,
+      sample_tumor_status: sm.sample_tumor_status,
+      tumor_classification: sm.tumor_classification
+  }) AS sample_filters,
+  COLLECT(DISTINCT stf.grant_id) as grant_id,
+  COLLECT(DISTINCT stp.institution) as institution,
+  null AS library_selection,
+  null AS library_source,
+  null AS library_strategy
+UNION ALL
+with st
+MATCH (file:single_cell_sequencing_file)
+MATCH (p:participant)&lt;-[:of_sample]-(sm1:sample)&lt;-[*0..2]-(sm:sample)&lt;-[:of_single_cell_sequencing_file]-(file)
+MATCH (st)&lt;-[:of_participant]-(p)
+OPTIONAL MATCH (st)&lt;-[:of_publication]-(pub:publication)
+OPTIONAL MATCH (p)&lt;-[:of_diagnosis]-(dg:diagnosis)
+OPTIONAL MATCH (p)&lt;-[:of_follow_up]-(fu:follow_up)
+OPTIONAL MATCH (st)&lt;-[:of_study_personnel]-(stp:study_personnel)
+OPTIONAL MATCH (st)&lt;-[:of_study_funding]-(stf:study_funding)
+UNWIND apoc.text.split(p.ethnicity, ';') AS ethnicities
+UNWIND apoc.text.split(p.race, ';') AS races
+with file, p, sm1, sm, st, ethnicities, races, fu, dg, stf, stp
+RETURN DISTINCT
+  file.id as id,
+  p.id as pid,
+  file.single_cell_sequencing_file_id AS file_id,
+  file.dcf_indexd_guid AS guid,
+  file.file_name AS file_name,
+  'Single Cell Sequencing' AS file_category,
+  file.file_type AS file_type,
+  file.file_description AS file_description,
+  file.file_size AS file_size,
+  file.md5sum AS md5sum,
+  st.study_id AS study_id,
+  st.phs_accession as phs_accession,
+  st.study_acronym as study_acronym,
+  st.study_short_title as study_short_title,
+  p.participant_id AS participant_id,
+  CASE sm1.sample_id WHEN sm.sample_id THEN sm.sample_id
+            ELSE sm1.sample_id + ',' + sm.sample_id END AS sample_id,
+  null as combined_filters,
+  COLLECT(DISTINCT {
+      race: races,
+      sex_at_birth: p.sex_at_birth,
+      ethnicity: ethnicities
+  }) AS participant_filters,
+  COLLECT(DISTINCT {
+      age_at_diagnosis: dg.age_at_diagnosis,
+      diagnosis_anatomic_site: dg.anatomic_site,
+      disease_phase: dg.disease_phase,
+      diagnosis_classification_system: dg.diagnosis_classification_system,
+      diagnosis_verification_status: dg.diagnosis_verification_status,
+      diagnosis_basis: dg.diagnosis_basis,
+      diagnosis_comment: dg.diagnosis_comment,
+      diagnosis_classification: dg.diagnosis_classification
+  }) AS diagnosis_filters,
+  COLLECT(DISTINCT fu.vital_status) as vital_status,
+  CASE sm1.sample_id WHEN sm.sample_id THEN COLLECT(DISTINCT {
+                              sample_anatomic_site: sm.anatomic_site,
+                              participant_age_at_collection: sm.participant_age_at_collection,
+                              sample_tumor_status: sm.sample_tumor_status,
+                              tumor_classification: sm.tumor_classification
+                          })
+            ELSE apoc.coll.union(COLLECT(DISTINCT {
+                              sample_anatomic_site: sm1.anatomic_site,
+                              participant_age_at_collection: sm1.participant_age_at_collection,
+                              sample_tumor_status: sm1.sample_tumor_status,
+                              tumor_classification: sm1.tumor_classification
+                          }), COLLECT(DISTINCT {
+                              sample_anatomic_site: sm.anatomic_site,
+                              participant_age_at_collection: sm.participant_age_at_collection,
+                              sample_tumor_status: sm.sample_tumor_status,
+                              tumor_classification: sm.tumor_classification
+                          })) END AS sample_filters,
+  COLLECT(DISTINCT stf.grant_id) as grant_id,
+  COLLECT(DISTINCT stp.institution) as institution,
+  file.library_selection AS library_selection,
+  file.library_source AS library_source,
+  file.library_strategy AS library_strategy
+UNION ALL
+with st
+MATCH (file:sequencing_file)
+MATCH (p:participant)&lt;-[:of_sample]-(sm1:sample)&lt;-[*0..2]-(sm:sample)&lt;-[:of_sequencing_file]-(file)
+MATCH (st)&lt;-[:of_participant]-(p)
+OPTIONAL MATCH (st)&lt;-[:of_publication]-(pub:publication)
+OPTIONAL MATCH (p)&lt;-[:of_diagnosis]-(dg:diagnosis)
+OPTIONAL MATCH (p)&lt;-[:of_follow_up]-(fu:follow_up)
+OPTIONAL MATCH (st)&lt;-[:of_study_personnel]-(stp:study_personnel)
+OPTIONAL MATCH (st)&lt;-[:of_study_funding]-(stf:study_funding)
+UNWIND apoc.text.split(p.ethnicity, ';') AS ethnicities
+UNWIND apoc.text.split(p.race, ';') AS races
+with file, p, sm1, sm, st, ethnicities, races, fu, dg, stf, stp
+RETURN DISTINCT
+  file.id as id,
+  p.id as pid,
+  file.sequencing_file_id AS file_id,
+  file.dcf_indexd_guid AS guid,
+  file.file_name AS file_name,
+  'Sequencing' AS file_category,
+  file.file_type AS file_type,
+  file.file_description AS file_description,
+  file.file_size AS file_size,
+  file.md5sum AS md5sum,
+  st.study_id AS study_id,
+  st.phs_accession as phs_accession,
+  st.study_acronym as study_acronym,
+  st.study_short_title as study_short_title,
+  p.participant_id AS participant_id,
+  CASE sm1.sample_id WHEN sm.sample_id THEN sm.sample_id
+            ELSE sm1.sample_id + ',' + sm.sample_id END AS sample_id,
+  null as combined_filters,
+  COLLECT(DISTINCT {
+      race: races,
+      sex_at_birth: p.sex_at_birth,
+      ethnicity: ethnicities
+  }) AS participant_filters,
+  COLLECT(DISTINCT {
+      age_at_diagnosis: dg.age_at_diagnosis,
+      diagnosis_anatomic_site: dg.anatomic_site,
+      disease_phase: dg.disease_phase,
+      diagnosis_classification_system: dg.diagnosis_classification_system,
+      diagnosis_verification_status: dg.diagnosis_verification_status,
+      diagnosis_basis: dg.diagnosis_basis,
+      diagnosis_comment: dg.diagnosis_comment,
+      diagnosis_classification: dg.diagnosis_classification
+  }) AS diagnosis_filters,
+  COLLECT(DISTINCT fu.vital_status) as vital_status,
+  CASE sm1.sample_id WHEN sm.sample_id THEN COLLECT(DISTINCT {
+                              sample_anatomic_site: sm.anatomic_site,
+                              participant_age_at_collection: sm.participant_age_at_collection,
+                              sample_tumor_status: sm.sample_tumor_status,
+                              tumor_classification: sm.tumor_classification
+                          })
+            ELSE apoc.coll.union(COLLECT(DISTINCT {
+                              sample_anatomic_site: sm1.anatomic_site,
+                              participant_age_at_collection: sm1.participant_age_at_collection,
+                              sample_tumor_status: sm1.sample_tumor_status,
+                              tumor_classification: sm1.tumor_classification
+                          }), COLLECT(DISTINCT {
+                              sample_anatomic_site: sm.anatomic_site,
+                              participant_age_at_collection: sm.participant_age_at_collection,
+                              sample_tumor_status: sm.sample_tumor_status,
+                              tumor_classification: sm.tumor_classification
+                          })) END AS sample_filters,
+  COLLECT(DISTINCT stf.grant_id) as grant_id,
+  COLLECT(DISTINCT stp.institution) as institution,
+  file.library_selection AS library_selection,
+  file.library_source AS library_source,
+  file.library_strategy AS library_strategy
+UNION ALL
+with st
+MATCH (file:cytogenomic_file)
+MATCH (p:participant)&lt;-[:of_sample]-(sm1:sample)&lt;-[*0..2]-(sm:sample)&lt;-[:of_cytogenomic_file]-(file)
+MATCH (st)&lt;-[:of_participant]-(p)
+OPTIONAL MATCH (st)&lt;-[:of_publication]-(pub:publication)
+OPTIONAL MATCH (p)&lt;-[:of_diagnosis]-(dg:diagnosis)
+OPTIONAL MATCH (p)&lt;-[:of_follow_up]-(fu:follow_up)
+OPTIONAL MATCH (st)&lt;-[:of_study_personnel]-(stp:study_personnel)
+OPTIONAL MATCH (st)&lt;-[:of_study_funding]-(stf:study_funding)
+UNWIND apoc.text.split(p.ethnicity, ';') AS ethnicities
+UNWIND apoc.text.split(p.race, ';') AS races
+with file, p, sm1, sm, st, ethnicities, races, fu, dg, stf, stp
+RETURN DISTINCT
+  file.id as id,
+  p.id as pid,
+  file.cytogenomic_file_id AS file_id,
+  file.dcf_indexd_guid AS guid,
+  file.file_name AS file_name,
+  'Cytogenomic' AS file_category,
+  file.file_type AS file_type,
+  file.file_description AS file_description,
+  file.file_size AS file_size,
+  file.md5sum AS md5sum,
+  st.study_id AS study_id,
+  st.phs_accession as phs_accession,
+  st.study_acronym as study_acronym,
+  st.study_short_title as study_short_title,
+  p.participant_id AS participant_id,
+  CASE sm1.sample_id WHEN sm.sample_id THEN sm.sample_id
+            ELSE sm1.sample_id + ',' + sm.sample_id END AS sample_id,
+  null as combined_filters,
+  COLLECT(DISTINCT {
+      race: races,
+      sex_at_birth: p.sex_at_birth,
+      ethnicity: ethnicities
+  }) AS participant_filters,
+  COLLECT(DISTINCT {
+      age_at_diagnosis: dg.age_at_diagnosis,
+      diagnosis_anatomic_site: dg.anatomic_site,
+      disease_phase: dg.disease_phase,
+      diagnosis_classification_system: dg.diagnosis_classification_system,
+      diagnosis_verification_status: dg.diagnosis_verification_status,
+      diagnosis_basis: dg.diagnosis_basis,
+      diagnosis_comment: dg.diagnosis_comment,
+      diagnosis_classification: dg.diagnosis_classification
+  }) AS diagnosis_filters,
+  COLLECT(DISTINCT fu.vital_status) as vital_status,
+  CASE sm1.sample_id WHEN sm.sample_id THEN COLLECT(DISTINCT {
+                              sample_anatomic_site: sm.anatomic_site,
+                              participant_age_at_collection: sm.participant_age_at_collection,
+                              sample_tumor_status: sm.sample_tumor_status,
+                              tumor_classification: sm.tumor_classification
+                          })
+            ELSE apoc.coll.union(COLLECT(DISTINCT {
+                              sample_anatomic_site: sm1.anatomic_site,
+                              participant_age_at_collection: sm1.participant_age_at_collection,
+                              sample_tumor_status: sm1.sample_tumor_status,
+                              tumor_classification: sm1.tumor_classification
+                          }), COLLECT(DISTINCT {
+                              sample_anatomic_site: sm.anatomic_site,
+                              participant_age_at_collection: sm.participant_age_at_collection,
+                              sample_tumor_status: sm.sample_tumor_status,
+                              tumor_classification: sm.tumor_classification
+                          })) END AS sample_filters,
+  COLLECT(DISTINCT stf.grant_id) as grant_id,
+  COLLECT(DISTINCT stp.institution) as institution,
+  null AS library_selection,
+  null AS library_source,
+  null AS library_strategy
+UNION ALL
+with st
+MATCH (file)
+WHERE (file:sequencing_file OR file:pathology_file OR file:methylation_array_file OR file:single_cell_sequencing_file OR file:cytogenomic_file)
+MATCH (st)&lt;-[:of_cell_line|of_pdx]-(cl)&lt;--(sm:sample)
+Where (cl: cell_line or cl: pdx)
+MATCH (sm)&lt;--(file)
+OPTIONAL MATCH (st)&lt;-[:of_publication]-(pub:publication)
+OPTIONAL MATCH (st)&lt;--(p:participant)&lt;-[:of_diagnosis]-(dg:diagnosis)
+OPTIONAL MATCH (st)&lt;--(p)&lt;-[:of_follow_up]-(fu:follow_up)
+OPTIONAL MATCH (st)&lt;-[:of_study_personnel]-(stp:study_personnel)
+OPTIONAL MATCH (st)&lt;-[:of_study_funding]-(stf:study_funding)
+with file, sm, st, fu, dg, stf, stp
+RETURN DISTINCT
+  file.id as id,
+  null as pid,
+  CASE LABELS(file)[0]
+        WHEN 'sequencing_file' THEN file.sequencing_file_id
+        WHEN 'single_cell_sequencing_file' THEN file.single_cell_sequencing_file_id
+        WHEN 'cytogenomic_file' THEN file.cytogenomic_file_id
+        WHEN 'pathology_file' THEN file.pathology_file_id
+        WHEN 'methylation_array_file' THEN file.methylation_array_file_id END AS file_id,
+  file.dcf_indexd_guid AS guid,
+  file.file_name AS file_name,
+  CASE LABELS(file)[0]
+        WHEN 'sequencing_file' THEN 'Sequencing'
+        WHEN 'single_cell_sequencing_file' THEN 'Single Cell Sequencing'
+        WHEN 'cytogenomic_file' THEN 'Cytogenomic'
+        WHEN 'pathology_file' THEN 'Pathology imaging'
+        WHEN 'methylation_array_file' THEN 'Methylation array' END AS file_category,
+  file.file_type AS file_type,
+  file.file_description AS file_description,
+  file.file_size AS file_size,
+  file.md5sum AS md5sum,
+  st.study_id AS study_id,
+  st.phs_accession as phs_accession,
+  st.study_acronym as study_acronym,
+  st.study_short_title as study_short_title,
+  null AS participant_id,
+  sm.sample_id AS sample_id,
+  null as combined_filters,
+  null AS participant_filters,
+  COLLECT(DISTINCT {
+      age_at_diagnosis: dg.age_at_diagnosis,
+      diagnosis_anatomic_site: dg.anatomic_site,
+      disease_phase: dg.disease_phase,
+      diagnosis_classification_system: dg.diagnosis_classification_system,
+      diagnosis_verification_status: dg.diagnosis_verification_status,
+      diagnosis_basis: dg.diagnosis_basis,
+      diagnosis_comment: dg.diagnosis_comment,
+      diagnosis_classification: dg.diagnosis_classification
+  }) AS diagnosis_filters,
+  COLLECT(DISTINCT fu.vital_status) as vital_status,
+  COLLECT(DISTINCT {
+      sample_anatomic_site: sm.anatomic_site,
+      participant_age_at_collection: sm.participant_age_at_collection,
+      sample_tumor_status: sm.sample_tumor_status,
+      tumor_classification: sm.tumor_classification
+  }) AS sample_filters,
+  COLLECT(DISTINCT stf.grant_id) as grant_id,
+  COLLECT(DISTINCT stp.institution) as institution,
+  CASE LABELS(file)[0]
+            WHEN 'sequencing_file' THEN file.library_selection
+            WHEN 'single_cell_sequencing_file' THEN file.library_selection
+            ELSE null END AS library_selection,
+  CASE LABELS(file)[0]
+            WHEN 'sequencing_file' THEN file.library_source
+            WHEN 'single_cell_sequencing_file' THEN file.library_source
+            ELSE null END AS library_source,
+  CASE LABELS(file)[0]
+            WHEN 'sequencing_file' THEN file.library_strategy
+            WHEN 'single_cell_sequencing_file' THEN file.library_strategy
+            ELSE null END AS library_strategy
+}
+with id, guid, file_name, file_category, file_type, file_description, file_size, md5sum, study_id, phs_accession, study_acronym, study_short_title, participant_id, sample_id, participant_filters,diagnosis_filters, vital_status, sample_filters, grant_id, institution,library_selection,library_source,library_strategy
+unwind participant_filters as participant_filter
+with id, guid, file_name, file_category, file_type, file_description, file_size, md5sum, study_id, phs_accession, study_acronym, study_short_title, participant_id, sample_id, participant_filter,diagnosis_filters, vital_status, sample_filters, grant_id, institution,library_selection,library_source,library_strategy
+where participant_filter.sex_at_birth in ['Male'] and ANY(element IN ['White'] WHERE element IN participant_filter.race)  
+unwind diagnosis_filters as diagnosis_filter
+with id, guid, file_name, file_category, file_type, file_description, file_size, md5sum, study_id, phs_accession, study_acronym, study_short_title, participant_id, sample_id,diagnosis_filter, vital_status, sample_filters, grant_id, institution,library_selection,library_source,library_strategy
+ with id, guid, file_name, file_category, file_type, file_description, file_size, md5sum, study_id, phs_accession, study_acronym, study_short_title, participant_id, sample_id, vital_status, sample_filters, grant_id, institution,library_selection,library_source,library_strategy
+unwind sample_filters as sample_filter
+with id, guid, file_name, file_category, file_type, file_description, file_size, md5sum, study_id, phs_accession, study_acronym, study_short_title, participant_id, sample_id, sample_filter, grant_id, institution,library_selection,library_source,library_strategy
+ with distinct id, guid, file_name, file_category, file_type, file_description, file_size, md5sum, study_id, phs_accession, study_acronym, study_short_title, participant_id, sample_id, grant_id, institution,library_selection,library_source,library_strategy
+call {
+  with id, guid, file_name, file_category, file_type, file_description, file_size, md5sum, study_id, phs_accession, study_acronym, study_short_title, participant_id, sample_id, grant_id, institution,library_selection,library_source,library_strategy
+  return id as fid, guid as dig, file_name as fn, file_category as fc, file_type as ft, file_description as fd, file_size as fsize, md5sum as md5, study_id as sid, phs_accession as pa, study_acronym as sa, study_short_title as sst, participant_id as pid, sample_id as smid, grant_id as gid, institution as istt,library_selection as ls,library_source as lis,library_strategy as listr
+  UNION ALL
+  with study_id
+  MATCH (file:clinical_measure_file)
+  MATCH (stu:study)&lt;-[:of_clinical_measure_file]-(file)
+  where stu.study_id = study_id
+  OPTIONAL MATCH (stu)&lt;-[:of_study_personnel]-(stp:study_personnel)
+  OPTIONAL MATCH (stu)&lt;-[:of_study_funding]-(stf:study_funding)
+  With file, stu, stf, stp
+  RETURN DISTINCT
+    file.id as fid,
+    file.dcf_indexd_guid AS dig,
+    file.file_name AS fn,
+    'Clinical data' AS fc,
+    file.file_type AS ft,
+    file.file_description AS fd,
+    file.file_size AS fsize,
+    file.md5sum AS md5,
+    stu.study_id AS sid,
+    stu.phs_accession as pa,
+    stu.study_acronym as sa,
+    stu.study_short_title as sst,
+    null AS pid,
+    null AS smid,
+    COLLECT(DISTINCT stf.grant_id) as gid,
+    COLLECT(DISTINCT stp.institution) as istt,
+    null AS ls,
+    null AS lis,
+    null AS listr
+}
+with fid as id, dig as guid, fn as file_name, fc as file_category, ft as file_type, fd as file_description, fsize as file_size, md5 as md5sum, sid as study_id, pa as phs_accession, sa as study_acronym, sst as study_short_title, pid as participant_id, smid as sample_id, gid as grant_id, istt as institution,ls as library_selection,lis as library_source,listr as library_strategy
+ with id, guid, file_name, file_category, file_type, file_description, file_size, ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
+        toInteger(floor(log(file_size)/log(1024))) as i,
+        2 as precision, md5sum, study_id, phs_accession, study_acronym, study_short_title, participant_id, sample_id, grant_id, institution,library_selection,library_source,library_strategy
+with id, guid, file_name, file_category, file_type, file_description, file_size, file_size /(1024^i) AS value,
         10^precision AS factor,
-        units[i] as unit
-        WITH file, p, st, unit,
-        round(factor * value)/factor AS size
-        RETURN DISTINCT
-        file.file_name AS file_name,
-        'Clinical data' AS file_category,
-        file.file_description AS file_description,
-        file.file_type AS file_type,
-        CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS file_size,
-        st.study_id AS study_id,
-        p.participant_id as participant_id,
-        "" AS sample_id,
-        file.dcf_indexd_guid AS guid,
-        file.md5sum AS md5sum
-        UNION ALL
-        MATCH (file:clinical_measure_file)
-        MATCH (st:study)&lt;-[:of_clinical_measure_file]-(file)
-        Where st.phs_accession in ['phs002529']
-        match (st)&lt;--(p:participant)
-        Where p.sex_at_birth in ['Male'] and p.race in ['White']
-        with file, st,
-        ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
-        toInteger(floor(log(file.file_size)/log(1024))) as i,
-        2 as precision
-        WITH file, st,
-        file.file_size /(1024^i) AS value,
-        10^precision AS factor,
-        units[i] as unit
-        WITH file, st, unit,
-        round(factor * value)/factor AS size
-        RETURN DISTINCT
-        file.file_name AS file_name,
-        'Clinical data' AS file_category,
-        file.file_description AS file_description,
-        file.file_type AS file_type,
-        CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS file_size,
-        st.study_id AS study_id,
-        "" as participant_id,
-        "" AS sample_id,
-        file.dcf_indexd_guid AS guid,
-        file.md5sum AS md5sum
-        UNION ALL
-        MATCH (file:methylation_array_file)
-        MATCH (p:participant)&lt;-[:of_sample]-(sm1:sample)&lt;-[*0..2]-(sm:sample)&lt;-[:of_methylation_array_file]-(file)
-        MATCH (st:study)&lt;-[:of_participant]-(p)
-        Where p.sex_at_birth in ['Male'] and p.race in ['White'] and st.phs_accession in ['phs002529']
-        with file, p, sm1, sm, st,
-        ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
-        toInteger(floor(log(file.file_size)/log(1024))) as i,
-        2 as precision
-        WITH file, p, sm1, sm, st,
-        file.file_size /(1024^i) AS value,
-        10^precision AS factor,
-        units[i] as unit
-        WITH file, p, sm1, sm, st, unit,
-        round(factor * value)/factor AS size
-        RETURN DISTINCT
-        file.file_name AS file_name,
-        'Methylation array' AS file_category,
-        file.file_description AS file_description,
-        file.file_type AS file_type,
-        CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS file_size,
-        st.study_id AS study_id,
-        p.participant_id as participant_id,
-        CASE sm1.sample_id WHEN sm.sample_id THEN sm.sample_id
-                    ELSE sm1.sample_id + ',' + sm.sample_id END AS sample_id,
-        file.dcf_indexd_guid AS guid,
-        file.md5sum AS md5sum
-        UNION ALL
-        MATCH (file:pathology_file)
-        MATCH (p:participant)&lt;-[:of_sample]-(sm1:sample)&lt;-[*0..2]-(sm:sample)&lt;-[:of_pathology_file]-(file)
-        MATCH (st:study)&lt;-[:of_participant]-(p)
-        Where p.sex_at_birth in ['Male'] and p.race in ['White'] and st.phs_accession in ['phs002529']
-        with file, p, sm1, sm, st,
-        ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
-        toInteger(floor(log(file.file_size)/log(1024))) as i,
-        2 as precision
-        WITH file, p, sm1, sm, st,
-        file.file_size /(1024^i) AS value,
-        10^precision AS factor,
-        units[i] as unit
-        WITH file, p, sm1, sm, st, unit,
-        round(factor * value)/factor AS size
-        RETURN DISTINCT
-        file.file_name AS file_name,
-        'Pathology imaging' AS file_category,
-        file.file_description AS file_description,
-        file.file_type AS file_type,
-        CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS file_size,
-        st.study_id AS study_id,
-        p.participant_id as participant_id,
-        CASE sm1.sample_id WHEN sm.sample_id THEN sm.sample_id
-                    ELSE sm1.sample_id + ',' + sm.sample_id END AS sample_id,
-        file.dcf_indexd_guid AS guid,
-        file.md5sum AS md5sum
-        UNION ALL
-        MATCH (file:radiology_file)
-        MATCH (p:participant)&lt;-[:of_radiology_file]-(file)
-        MATCH (st:study)&lt;-[:of_participant]-(p)
-        Where p.sex_at_birth in ['Male'] and p.race in ['White'] and st.phs_accession in ['phs002529']
-        with file, p, st,
-        ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
-        toInteger(floor(log(file.file_size)/log(1024))) as i,
-        2 as precision
-        WITH file, p, st,
-        file.file_size /(1024^i) AS value,
-        10^precision AS factor,
-        units[i] as unit
-        WITH file, p, st, unit,
-        round(factor * value)/factor AS size
-        RETURN DISTINCT
-        file.file_name AS file_name,
-        'Radiology imaging' AS file_category,
-        file.file_description AS file_description,
-        file.file_type AS file_type,
-        CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS file_size,
-        st.study_id AS study_id,
-        p.participant_id as participant_id,
-        "" AS sample_id,
-        file.dcf_indexd_guid AS guid,
-        file.md5sum AS md5sum
-        UNION ALL
-        MATCH (file:single_cell_sequencing_file)
-        MATCH (p:participant)&lt;-[:of_sample]-(sm1:sample)&lt;-[*0..2]-(sm:sample)&lt;-[:of_single_cell_sequencing_file]-(file)
-        MATCH (st:study)&lt;-[:of_participant]-(p)
-        Where p.sex_at_birth in ['Male'] and p.race in ['White'] and st.phs_accession in ['phs002529']
-        with file, p, sm1, sm, st,
-        ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
-        toInteger(floor(log(file.file_size)/log(1024))) as i,
-        2 as precision
-        WITH file, p, sm1, sm, st,
-        file.file_size /(1024^i) AS value,
-        10^precision AS factor,
-        units[i] as unit
-        WITH file, p, sm1, sm, st, unit,
-        round(factor * value)/factor AS size
-        RETURN DISTINCT
-        file.file_name AS file_name,
-        'Single Cell Sequencing' AS file_category,
-        file.file_description AS file_description,
-        file.file_type AS file_type,
-        CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS file_size,
-        st.study_id AS study_id,
-        p.participant_id as participant_id,
-        CASE sm1.sample_id WHEN sm.sample_id THEN sm.sample_id
-                    ELSE sm1.sample_id + ',' + sm.sample_id END AS sample_id,
-        file.dcf_indexd_guid AS guid,
-        file.md5sum AS md5sum
-        UNION ALL
-        MATCH (file:sequencing_file)
-        MATCH (p:participant)&lt;-[:of_sample]-(sm1:sample)&lt;-[*0..2]-(sm:sample)&lt;-[:of_sequencing_file]-(file)
-        MATCH (st:study)&lt;-[:of_participant]-(p)
-        Where p.sex_at_birth in ['Male'] and p.race in ['White'] and st.phs_accession in ['phs002529']
-        with file, p, sm1, sm, st,
-        ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
-        toInteger(floor(log(file.file_size)/log(1024))) as i,
-        2 as precision
-        WITH file, p, sm1, sm, st,
-        file.file_size /(1024^i) AS value,
-        10^precision AS factor,
-        units[i] as unit
-        WITH file, p, sm1, sm, st, unit,
-        round(factor * value)/factor AS size
-        RETURN DISTINCT
-        file.file_name AS file_name,
-        'Sequencing' AS file_category,
-        file.file_description AS file_description,
-        file.file_type AS file_type,
-        CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS file_size,
-        st.study_id AS study_id,
-        p.participant_id as participant_id,
-        CASE sm1.sample_id WHEN sm.sample_id THEN sm.sample_id
-                    ELSE sm1.sample_id + ',' + sm.sample_id END AS sample_id,
-        file.dcf_indexd_guid AS guid,
-        file.md5sum AS md5sum
-        UNION ALL
-        MATCH (file:cytogenomic_file)
-        MATCH (p:participant)&lt;-[:of_sample]-(sm1:sample)&lt;-[*0..2]-(sm:sample)&lt;-[:of_cytogenomic_file]-(file)
-        MATCH (st:study)&lt;-[:of_participant]-(p)
-        Where p.sex_at_birth in ['Male'] and p.race in ['White'] and st.phs_accession in ['phs002529']
-        with file, p, sm1, sm, st,
-        ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
-        toInteger(floor(log(file.file_size)/log(1024))) as i,
-        2 as precision
-        WITH file, p, sm1, sm, st,
-        file.file_size /(1024^i) AS value,
-        10^precision AS factor,
-        units[i] as unit
-        WITH file, p, sm1, sm, st, unit,
-        round(factor * value)/factor AS size
-        RETURN DISTINCT
-        file.file_name AS file_name,
-        'Cytogenomic' AS file_category,
-        file.file_description AS file_description,
-        file.file_type AS file_type,
-        CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS file_size,
-        st.study_id AS study_id,
-        p.participant_id as participant_id,
-        CASE sm1.sample_id WHEN sm.sample_id THEN sm.sample_id
-                    ELSE sm1.sample_id + ',' + sm.sample_id END AS sample_id,
-        file.dcf_indexd_guid AS guid,
-        file.md5sum AS md5sum
-}
+        units[i] as unit, md5sum, study_id, phs_accession, study_acronym, study_short_title, participant_id, sample_id, grant_id, institution,library_selection,library_source,library_strategy
+with id, guid, file_name, file_category, file_type, file_description, unit,
+        round(factor * value)/factor AS size, md5sum, study_id, phs_accession, study_acronym, study_short_title, participant_id, sample_id, grant_id, institution,library_selection,library_source,library_strategy     
+with DISTINCT id,
+        file_name,
+        file_category,
+        file_description,
+        file_type,
+        CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS file_size_new,
+        study_id,
+        participant_id,
+        sample_id,
+        guid,
+        md5sum
 RETURN file_name AS `File Name`,
 file_category As `File Category`,
 file_description As `File Description`,
 file_type As `File Type`,
-file_size As `File Size`,
+file_size_new As `File Size`,
 study_id As `Study ID`,
-participant_id As `Participant ID`,
-sample_id As `Sample ID`,
+coalesce(participant_id, '') As `Participant ID`,
+coalesce(sample_id, '') As `Sample ID`,
 guid As `GUID`,
 md5sum As `MD5Sum`
-ORDER BY file_name LIMIT 100</t>
+ORDER BY file_name limit 100</t>
   </si>
 </sst>
 </file>
@@ -795,7 +2399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="131" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="131" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -825,7 +2429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="224" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -842,7 +2446,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="335" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
